--- a/data/strategies/山西场内策略结果.xlsx
+++ b/data/strategies/山西场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="198">
+  <si>
+    <t>鹏华中证细分化工产业主题ETF</t>
+  </si>
+  <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
+  <si>
+    <t>广发中证全指可选消费ETF</t>
+  </si>
+  <si>
+    <t>南方中证申万有色金属ETF</t>
+  </si>
   <si>
     <t>国泰中证煤炭ETF</t>
   </si>
   <si>
-    <t>南方中证申万有色金属ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证细分化工产业主题ETF</t>
-  </si>
-  <si>
-    <t>富国中证细分机械设备产业ETF</t>
-  </si>
-  <si>
-    <t>广发中证全指可选消费ETF</t>
-  </si>
-  <si>
     <t>复苏+估值+科技</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>17.75%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>13.31%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>16.05%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>18.24%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>25.07%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>3.41%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>15.50%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>18.36%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>21.87%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>21.56%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.34%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,106 +137,109 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159870.OF</t>
+  </si>
+  <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
+    <t>159936.OF</t>
+  </si>
+  <si>
+    <t>512400.OF</t>
+  </si>
+  <si>
     <t>515220.OF</t>
   </si>
   <si>
-    <t>512400.OF</t>
-  </si>
-  <si>
-    <t>159870.OF</t>
-  </si>
-  <si>
-    <t>159886.OF</t>
-  </si>
-  <si>
-    <t>159936.OF</t>
-  </si>
-  <si>
-    <t>13.04%</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>5.53%</t>
-  </si>
-  <si>
-    <t>-0.89%</t>
-  </si>
-  <si>
-    <t>35.35%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>18.93%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>32.95%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>15.86%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>27.84%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
-    <t>34.24%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>34.95%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
-  </si>
-  <si>
-    <t>33.36%</t>
+    <t>6.83%</t>
+  </si>
+  <si>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>-1.30%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>-6.09%</t>
+  </si>
+  <si>
+    <t>16.09%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>14.51%</t>
+  </si>
+  <si>
+    <t>21.19%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>20.36%</t>
+  </si>
+  <si>
+    <t>23.52%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>35.03%</t>
+  </si>
+  <si>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t>15.67%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
   </si>
   <si>
     <t>36.90%</t>
   </si>
   <si>
-    <t>19.87%</t>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>35.83%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -254,304 +254,307 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
   </si>
   <si>
     <t>300750.SZ</t>
   </si>
   <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
     <t>601888.SH</t>
   </si>
   <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
     <t>000651.SZ</t>
   </si>
   <si>
     <t>600309.SH</t>
   </si>
   <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>601225.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>601088.SH</t>
-  </si>
-  <si>
     <t>002594.SZ</t>
   </si>
   <si>
-    <t>603799.SH</t>
+    <t>002812.SZ</t>
   </si>
   <si>
     <t>600031.SH</t>
   </si>
   <si>
-    <t>000723.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>000983.SZ</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
     <t>600690.SH</t>
   </si>
   <si>
-    <t>601898.SH</t>
-  </si>
-  <si>
-    <t>601699.SH</t>
-  </si>
-  <si>
-    <t>3.30%</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>2.92%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.39%</t>
-  </si>
-  <si>
-    <t>1.86%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.52%</t>
-  </si>
-  <si>
-    <t>1.45%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.18%</t>
-  </si>
-  <si>
-    <t>1.09%</t>
-  </si>
-  <si>
-    <t>1.07%</t>
-  </si>
-  <si>
-    <t>1.04%</t>
-  </si>
-  <si>
-    <t>1.02%</t>
-  </si>
-  <si>
-    <t>1.01%</t>
-  </si>
-  <si>
-    <t>0.96%</t>
+    <t>002027.SZ</t>
+  </si>
+  <si>
+    <t>002709.SZ</t>
+  </si>
+  <si>
+    <t>300014.SZ</t>
+  </si>
+  <si>
+    <t>600660.SH</t>
+  </si>
+  <si>
+    <t>300274.SZ</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>600346.SH</t>
+  </si>
+  <si>
+    <t>600104.SH</t>
+  </si>
+  <si>
+    <t>300124.SZ</t>
+  </si>
+  <si>
+    <t>002493.SZ</t>
+  </si>
+  <si>
+    <t>307.36%</t>
+  </si>
+  <si>
+    <t>282.97%</t>
+  </si>
+  <si>
+    <t>260.50%</t>
+  </si>
+  <si>
+    <t>227.77%</t>
+  </si>
+  <si>
+    <t>222.95%</t>
+  </si>
+  <si>
+    <t>212.16%</t>
+  </si>
+  <si>
+    <t>202.32%</t>
+  </si>
+  <si>
+    <t>154.94%</t>
+  </si>
+  <si>
+    <t>102.22%</t>
+  </si>
+  <si>
+    <t>87.19%</t>
+  </si>
+  <si>
+    <t>85.97%</t>
+  </si>
+  <si>
+    <t>75.69%</t>
+  </si>
+  <si>
+    <t>69.71%</t>
+  </si>
+  <si>
+    <t>69.63%</t>
+  </si>
+  <si>
+    <t>69.47%</t>
+  </si>
+  <si>
+    <t>69.18%</t>
+  </si>
+  <si>
+    <t>68.82%</t>
+  </si>
+  <si>
+    <t>68.48%</t>
+  </si>
+  <si>
+    <t>68.05%</t>
+  </si>
+  <si>
+    <t>65.16%</t>
+  </si>
+  <si>
+    <t>美的集团</t>
   </si>
   <si>
     <t>宁德时代</t>
   </si>
   <si>
-    <t>美的集团</t>
-  </si>
-  <si>
     <t>中国中免</t>
   </si>
   <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
     <t>格力电器</t>
   </si>
   <si>
     <t>万华化学</t>
   </si>
   <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>陕西煤业</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>中国神华</t>
-  </si>
-  <si>
     <t>比亚迪</t>
   </si>
   <si>
-    <t>华友钴业</t>
+    <t>恩捷股份</t>
   </si>
   <si>
     <t>三一重工</t>
   </si>
   <si>
-    <t>美锦能源</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>山西焦煤</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
     <t>海尔智家</t>
   </si>
   <si>
-    <t>中煤能源</t>
-  </si>
-  <si>
-    <t>潞安环能</t>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>恒力石化</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>荣盛石化</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
   </si>
   <si>
     <t>动力电池系统</t>
   </si>
   <si>
-    <t>暖通空调</t>
-  </si>
-  <si>
     <t>商品贸易-免税商品</t>
   </si>
   <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
     <t>空调</t>
   </si>
   <si>
     <t>聚氨酯系列</t>
   </si>
   <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>原选煤</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>煤炭收入</t>
-  </si>
-  <si>
     <t>汽车</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>膜类产品</t>
   </si>
   <si>
     <t>挖掘机械</t>
   </si>
   <si>
-    <t>焦炭产品及副产品</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
     <t>电冰箱</t>
   </si>
   <si>
-    <t>煤炭业务</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>20.10%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>27.90%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>8.99%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>-14.61%</t>
-  </si>
-  <si>
-    <t>13.72%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>50.26%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>66.07%</t>
-  </si>
-  <si>
-    <t>90.23%</t>
+    <t>楼宇媒体</t>
+  </si>
+  <si>
+    <t>锂离子电池材料产品</t>
+  </si>
+  <si>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>汽车玻璃</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>化工品</t>
+  </si>
+  <si>
+    <t>整车业务</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>化工产品</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>41.34%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>-23.86%</t>
+  </si>
+  <si>
+    <t>-8.19%</t>
+  </si>
+  <si>
+    <t>-13.42%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>15.33%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>-5.95%</t>
+  </si>
+  <si>
+    <t>-10.69%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>-0.46%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -560,52 +563,55 @@
     <t>标签占比</t>
   </si>
   <si>
+    <t>家用电器</t>
+  </si>
+  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>家电家具</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>化工</t>
   </si>
   <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>化工</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
     <t>机械设备</t>
   </si>
   <si>
-    <t>25.09%</t>
-  </si>
-  <si>
-    <t>21.90%</t>
-  </si>
-  <si>
-    <t>18.98%</t>
-  </si>
-  <si>
-    <t>8.62%</t>
-  </si>
-  <si>
-    <t>7.05%</t>
-  </si>
-  <si>
-    <t>5.49%</t>
-  </si>
-  <si>
-    <t>4.93%</t>
-  </si>
-  <si>
-    <t>4.28%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
+    <t>营销服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锂电池 </t>
+  </si>
+  <si>
+    <t>9.36%</t>
+  </si>
+  <si>
+    <t>7.78%</t>
+  </si>
+  <si>
+    <t>6.58%</t>
+  </si>
+  <si>
+    <t>5.24%</t>
+  </si>
+  <si>
+    <t>5.16%</t>
+  </si>
+  <si>
+    <t>3.95%</t>
+  </si>
+  <si>
+    <t>1.55%</t>
+  </si>
+  <si>
+    <t>1.30%</t>
+  </si>
+  <si>
+    <t>1.06%</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1038,22 +1044,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.02686009883611</v>
+      </c>
+      <c r="C3">
+        <v>1.064836999224328</v>
+      </c>
+      <c r="D3">
+        <v>1.015851517431653</v>
+      </c>
+      <c r="E3">
+        <v>1.056768131545464</v>
+      </c>
+      <c r="F3">
         <v>1.019661636945588</v>
       </c>
-      <c r="C3">
-        <v>1.056768131545464</v>
-      </c>
-      <c r="D3">
-        <v>1.02686009883611</v>
-      </c>
-      <c r="E3">
-        <v>1.064836999224328</v>
-      </c>
-      <c r="F3">
-        <v>1.015851517431653</v>
-      </c>
       <c r="G3">
-        <v>1.033354082575896</v>
+        <v>1.034059088943543</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1067,22 +1073,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.061330056224159</v>
+      </c>
+      <c r="C4">
+        <v>1.079573026780003</v>
+      </c>
+      <c r="D4">
+        <v>1.023275645849009</v>
+      </c>
+      <c r="E4">
+        <v>1.068219633943428</v>
+      </c>
+      <c r="F4">
         <v>0.996342021033379</v>
       </c>
-      <c r="C4">
-        <v>1.068219633943428</v>
-      </c>
-      <c r="D4">
-        <v>1.061330056224159</v>
-      </c>
-      <c r="E4">
-        <v>1.079573026780003</v>
-      </c>
-      <c r="F4">
-        <v>1.023275645849009</v>
-      </c>
       <c r="G4">
-        <v>1.041905453171917</v>
+        <v>1.037843112217475</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1096,22 +1102,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.068998328826082</v>
+      </c>
+      <c r="C5">
+        <v>1.086848968240705</v>
+      </c>
+      <c r="D5">
+        <v>1.014296463506396</v>
+      </c>
+      <c r="E5">
+        <v>1.073407066653616</v>
+      </c>
+      <c r="F5">
         <v>0.9872732815119647</v>
       </c>
-      <c r="C5">
-        <v>1.073407066653616</v>
-      </c>
-      <c r="D5">
-        <v>1.068998328826082</v>
-      </c>
-      <c r="E5">
-        <v>1.086848968240705</v>
-      </c>
-      <c r="F5">
-        <v>1.014296463506396</v>
-      </c>
       <c r="G5">
-        <v>1.040748296161279</v>
+        <v>1.036765305876704</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1125,22 +1131,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.104638764970133</v>
+      </c>
+      <c r="C6">
+        <v>1.132719877079329</v>
+      </c>
+      <c r="D6">
+        <v>1.024780536744419</v>
+      </c>
+      <c r="E6">
+        <v>1.115102280512871</v>
+      </c>
+      <c r="F6">
         <v>1.002057613168724</v>
       </c>
-      <c r="C6">
-        <v>1.115102280512871</v>
-      </c>
-      <c r="D6">
-        <v>1.104638764970133</v>
-      </c>
-      <c r="E6">
-        <v>1.132719877079329</v>
-      </c>
-      <c r="F6">
-        <v>1.024780536744419</v>
-      </c>
       <c r="G6">
-        <v>1.067258934989691</v>
+        <v>1.06411064634154</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1154,22 +1160,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.101586266493641</v>
+      </c>
+      <c r="C7">
+        <v>1.118095518166899</v>
+      </c>
+      <c r="D7">
+        <v>1.02879357913218</v>
+      </c>
+      <c r="E7">
+        <v>1.111187236958011</v>
+      </c>
+      <c r="F7">
         <v>0.9972565157750343</v>
       </c>
-      <c r="C7">
-        <v>1.111187236958011</v>
-      </c>
-      <c r="D7">
-        <v>1.101586266493641</v>
-      </c>
-      <c r="E7">
-        <v>1.118095518166899</v>
-      </c>
-      <c r="F7">
-        <v>1.02879357913218</v>
-      </c>
       <c r="G7">
-        <v>1.064184813547226</v>
+        <v>1.059537388252935</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1183,22 +1189,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.089209983403007</v>
+      </c>
+      <c r="C8">
+        <v>1.089060901222685</v>
+      </c>
+      <c r="D8">
+        <v>1.029245046400803</v>
+      </c>
+      <c r="E8">
+        <v>1.063717333855339</v>
+      </c>
+      <c r="F8">
         <v>0.953208352385307</v>
       </c>
-      <c r="C8">
-        <v>1.063717333855339</v>
-      </c>
-      <c r="D8">
-        <v>1.089209983403007</v>
-      </c>
-      <c r="E8">
-        <v>1.089060901222685</v>
-      </c>
-      <c r="F8">
-        <v>1.029245046400803</v>
-      </c>
       <c r="G8">
-        <v>1.041942927936414</v>
+        <v>1.030203599415783</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1212,22 +1218,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.110335048647452</v>
+      </c>
+      <c r="C9">
+        <v>1.132395423494981</v>
+      </c>
+      <c r="D9">
+        <v>1.049410584399298</v>
+      </c>
+      <c r="E9">
+        <v>1.08808847998434</v>
+      </c>
+      <c r="F9">
         <v>0.9643347050754458</v>
       </c>
-      <c r="C9">
-        <v>1.08808847998434</v>
-      </c>
-      <c r="D9">
-        <v>1.110335048647452</v>
-      </c>
-      <c r="E9">
-        <v>1.132395423494981</v>
-      </c>
-      <c r="F9">
-        <v>1.049410584399298</v>
-      </c>
       <c r="G9">
-        <v>1.065267962215434</v>
+        <v>1.052181978562411</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1241,22 +1247,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.110259492098048</v>
+      </c>
+      <c r="C10">
+        <v>1.118211904329259</v>
+      </c>
+      <c r="D10">
+        <v>1.045949335339855</v>
+      </c>
+      <c r="E10">
+        <v>1.05392972496819</v>
+      </c>
+      <c r="F10">
         <v>0.9606005182136869</v>
       </c>
-      <c r="C10">
-        <v>1.05392972496819</v>
-      </c>
-      <c r="D10">
-        <v>1.110259492098048</v>
-      </c>
-      <c r="E10">
-        <v>1.118211904329259</v>
-      </c>
-      <c r="F10">
-        <v>1.045949335339855</v>
-      </c>
       <c r="G10">
-        <v>1.055331202413577</v>
+        <v>1.042318353353986</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1270,22 +1276,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.087347257669719</v>
+      </c>
+      <c r="C11">
+        <v>1.085541383672937</v>
+      </c>
+      <c r="D11">
+        <v>1.024028091296714</v>
+      </c>
+      <c r="E11">
+        <v>1.032984241949692</v>
+      </c>
+      <c r="F11">
         <v>0.9388812680993751</v>
       </c>
-      <c r="C11">
-        <v>1.032984241949692</v>
-      </c>
-      <c r="D11">
-        <v>1.087347257669719</v>
-      </c>
-      <c r="E11">
-        <v>1.085541383672937</v>
-      </c>
-      <c r="F11">
-        <v>1.024028091296714</v>
-      </c>
       <c r="G11">
-        <v>1.031673032657795</v>
+        <v>1.018628922486702</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1299,22 +1305,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.091761509106276</v>
+      </c>
+      <c r="C12">
+        <v>1.087277505194144</v>
+      </c>
+      <c r="D12">
+        <v>1.028342111863557</v>
+      </c>
+      <c r="E12">
+        <v>1.043750611725555</v>
+      </c>
+      <c r="F12">
         <v>0.9580856576741351</v>
       </c>
-      <c r="C12">
-        <v>1.043750611725555</v>
-      </c>
-      <c r="D12">
-        <v>1.091761509106276</v>
-      </c>
-      <c r="E12">
-        <v>1.087277505194144</v>
-      </c>
-      <c r="F12">
-        <v>1.028342111863557</v>
-      </c>
       <c r="G12">
-        <v>1.03920650007249</v>
+        <v>1.02850019885574</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1328,22 +1334,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.137076676849913</v>
+      </c>
+      <c r="C13">
+        <v>1.102710583442528</v>
+      </c>
+      <c r="D13">
+        <v>1.037020316027088</v>
+      </c>
+      <c r="E13">
+        <v>1.059508662033865</v>
+      </c>
+      <c r="F13">
         <v>0.9780521262002744</v>
       </c>
-      <c r="C13">
-        <v>1.059508662033865</v>
-      </c>
-      <c r="D13">
-        <v>1.137076676849913</v>
-      </c>
-      <c r="E13">
-        <v>1.102710583442528</v>
-      </c>
-      <c r="F13">
-        <v>1.037020316027088</v>
-      </c>
       <c r="G13">
-        <v>1.058166936236996</v>
+        <v>1.049448317275863</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1357,22 +1363,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.121004392227605</v>
+      </c>
+      <c r="C14">
+        <v>1.07041606147414</v>
+      </c>
+      <c r="D14">
+        <v>1.022523200401304</v>
+      </c>
+      <c r="E14">
+        <v>1.022413624351571</v>
+      </c>
+      <c r="F14">
         <v>0.9762231367169638</v>
       </c>
-      <c r="C14">
-        <v>1.022413624351571</v>
-      </c>
-      <c r="D14">
-        <v>1.121004392227605</v>
-      </c>
-      <c r="E14">
-        <v>1.07041606147414</v>
-      </c>
-      <c r="F14">
-        <v>1.022523200401304</v>
-      </c>
       <c r="G14">
-        <v>1.038785280374869</v>
+        <v>1.032109688330119</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1386,22 +1392,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.139172989380303</v>
+      </c>
+      <c r="C15">
+        <v>1.11199543075996</v>
+      </c>
+      <c r="D15">
+        <v>1.031101078505142</v>
+      </c>
+      <c r="E15">
+        <v>1.053146716257218</v>
+      </c>
+      <c r="F15">
         <v>0.9763755525072396</v>
       </c>
-      <c r="C15">
-        <v>1.053146716257218</v>
-      </c>
-      <c r="D15">
-        <v>1.139172989380303</v>
-      </c>
-      <c r="E15">
-        <v>1.11199543075996</v>
-      </c>
-      <c r="F15">
-        <v>1.031101078505142</v>
-      </c>
       <c r="G15">
-        <v>1.056724930919798</v>
+        <v>1.048803449887023</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1415,22 +1421,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.171715167447518</v>
+      </c>
+      <c r="C16">
+        <v>1.141350292764891</v>
+      </c>
+      <c r="D16">
+        <v>1.04484574868322</v>
+      </c>
+      <c r="E16">
+        <v>1.090535382206127</v>
+      </c>
+      <c r="F16">
         <v>1.000990702636793</v>
       </c>
-      <c r="C16">
-        <v>1.090535382206127</v>
-      </c>
-      <c r="D16">
-        <v>1.171715167447518</v>
-      </c>
-      <c r="E16">
-        <v>1.141350292764891</v>
-      </c>
-      <c r="F16">
-        <v>1.04484574868322</v>
-      </c>
       <c r="G16">
-        <v>1.082014332423807</v>
+        <v>1.075885946702994</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1444,22 +1450,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.189923116005769</v>
+      </c>
+      <c r="C17">
+        <v>1.169311773426793</v>
+      </c>
+      <c r="D17">
+        <v>1.048758465011287</v>
+      </c>
+      <c r="E17">
+        <v>1.10061661935989</v>
+      </c>
+      <c r="F17">
         <v>0.9763755525072396</v>
       </c>
-      <c r="C17">
-        <v>1.10061661935989</v>
-      </c>
-      <c r="D17">
-        <v>1.189923116005769</v>
-      </c>
-      <c r="E17">
-        <v>1.169311773426793</v>
-      </c>
-      <c r="F17">
-        <v>1.048758465011287</v>
-      </c>
       <c r="G17">
-        <v>1.08845271942751</v>
+        <v>1.077920752452169</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1473,22 +1479,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.200397044346235</v>
+      </c>
+      <c r="C18">
+        <v>1.170550022878105</v>
+      </c>
+      <c r="D18">
+        <v>1.05472786556308</v>
+      </c>
+      <c r="E18">
+        <v>1.116178917490457</v>
+      </c>
+      <c r="F18">
         <v>0.969974089315653</v>
       </c>
-      <c r="C18">
-        <v>1.116178917490457</v>
-      </c>
-      <c r="D18">
-        <v>1.200397044346235</v>
-      </c>
-      <c r="E18">
-        <v>1.170550022878105</v>
-      </c>
-      <c r="F18">
-        <v>1.05472786556308</v>
-      </c>
       <c r="G18">
-        <v>1.093912472884871</v>
+        <v>1.081352070106137</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1502,22 +1508,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.176236507453332</v>
+      </c>
+      <c r="C19">
+        <v>1.143111330235736</v>
+      </c>
+      <c r="D19">
+        <v>1.033860045146727</v>
+      </c>
+      <c r="E19">
+        <v>1.09601644318293</v>
+      </c>
+      <c r="F19">
         <v>0.9847584209724127</v>
       </c>
-      <c r="C19">
-        <v>1.09601644318293</v>
-      </c>
-      <c r="D19">
-        <v>1.176236507453332</v>
-      </c>
-      <c r="E19">
-        <v>1.143111330235736</v>
-      </c>
-      <c r="F19">
-        <v>1.033860045146727</v>
-      </c>
       <c r="G19">
-        <v>1.077597935023524</v>
+        <v>1.070689031902431</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1531,22 +1537,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.179505797241663</v>
+      </c>
+      <c r="C20">
+        <v>1.173343402505447</v>
+      </c>
+      <c r="D20">
+        <v>1.038525206922498</v>
+      </c>
+      <c r="E20">
+        <v>1.089262993050798</v>
+      </c>
+      <c r="F20">
         <v>0.9836915104404815</v>
       </c>
-      <c r="C20">
-        <v>1.089262993050798</v>
-      </c>
-      <c r="D20">
-        <v>1.179505797241663</v>
-      </c>
-      <c r="E20">
-        <v>1.173343402505447</v>
-      </c>
-      <c r="F20">
-        <v>1.038525206922498</v>
-      </c>
       <c r="G20">
-        <v>1.083335701836215</v>
+        <v>1.075687615397962</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1560,22 +1566,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.129671695457043</v>
+      </c>
+      <c r="C21">
+        <v>1.114061617230356</v>
+      </c>
+      <c r="D21">
+        <v>1.011336844745423</v>
+      </c>
+      <c r="E21">
+        <v>1.049133796613487</v>
+      </c>
+      <c r="F21">
         <v>0.9545800944977899</v>
       </c>
-      <c r="C21">
-        <v>1.049133796613487</v>
-      </c>
-      <c r="D21">
-        <v>1.129671695457043</v>
-      </c>
-      <c r="E21">
-        <v>1.114061617230356</v>
-      </c>
-      <c r="F21">
-        <v>1.011336844745423</v>
-      </c>
       <c r="G21">
-        <v>1.044588516848328</v>
+        <v>1.036423750165349</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1589,22 +1595,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.126820881609365</v>
+      </c>
+      <c r="C22">
+        <v>1.097880501839255</v>
+      </c>
+      <c r="D22">
+        <v>1.006621519939804</v>
+      </c>
+      <c r="E22">
+        <v>1.036312028971322</v>
+      </c>
+      <c r="F22">
         <v>0.9255448864502361</v>
       </c>
-      <c r="C22">
-        <v>1.036312028971322</v>
-      </c>
-      <c r="D22">
-        <v>1.126820881609365</v>
-      </c>
-      <c r="E22">
-        <v>1.097880501839255</v>
-      </c>
-      <c r="F22">
-        <v>1.006621519939804</v>
-      </c>
       <c r="G22">
-        <v>1.032776505470823</v>
+        <v>1.020713083285179</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1618,22 +1624,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.181885967353556</v>
+      </c>
+      <c r="C23">
+        <v>1.101091952976316</v>
+      </c>
+      <c r="D23">
+        <v>1.018008527715074</v>
+      </c>
+      <c r="E23">
+        <v>1.048155035724772</v>
+      </c>
+      <c r="F23">
         <v>0.9470355128791342</v>
       </c>
-      <c r="C23">
-        <v>1.048155035724772</v>
-      </c>
-      <c r="D23">
-        <v>1.181885967353556</v>
-      </c>
-      <c r="E23">
-        <v>1.101091952976316</v>
-      </c>
-      <c r="F23">
-        <v>1.018008527715074</v>
-      </c>
       <c r="G23">
-        <v>1.051816564263067</v>
+        <v>1.041544953673767</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1647,22 +1653,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.211941835244988</v>
+      </c>
+      <c r="C24">
+        <v>1.137013328468826</v>
+      </c>
+      <c r="D24">
+        <v>1.049260095309757</v>
+      </c>
+      <c r="E24">
+        <v>1.078790251541548</v>
+      </c>
+      <c r="F24">
         <v>0.9367474470355129</v>
       </c>
-      <c r="C24">
-        <v>1.078790251541548</v>
-      </c>
-      <c r="D24">
-        <v>1.211941835244988</v>
-      </c>
-      <c r="E24">
-        <v>1.137013328468826</v>
-      </c>
-      <c r="F24">
-        <v>1.049260095309757</v>
-      </c>
       <c r="G24">
-        <v>1.0764748422231</v>
+        <v>1.059577342583533</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1676,22 +1682,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.205280296984896</v>
+      </c>
+      <c r="C25">
+        <v>1.143360464903067</v>
+      </c>
+      <c r="D25">
+        <v>1.043140205668422</v>
+      </c>
+      <c r="E25">
+        <v>1.084564940784966</v>
+      </c>
+      <c r="F25">
         <v>0.9300411522633744</v>
       </c>
-      <c r="C25">
-        <v>1.084564940784966</v>
-      </c>
-      <c r="D25">
-        <v>1.205280296984896</v>
-      </c>
-      <c r="E25">
-        <v>1.143360464903067</v>
-      </c>
-      <c r="F25">
-        <v>1.043140205668422</v>
-      </c>
       <c r="G25">
-        <v>1.074245029400311</v>
+        <v>1.057253858932676</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1705,22 +1711,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.21061140609628</v>
+      </c>
+      <c r="C26">
+        <v>1.139734654198959</v>
+      </c>
+      <c r="D26">
+        <v>1.02979683972912</v>
+      </c>
+      <c r="E26">
+        <v>1.040227072526182</v>
+      </c>
+      <c r="F26">
         <v>0.9301173601585123</v>
       </c>
-      <c r="C26">
-        <v>1.040227072526182</v>
-      </c>
-      <c r="D26">
-        <v>1.21061140609628</v>
-      </c>
-      <c r="E26">
-        <v>1.139734654198959</v>
-      </c>
-      <c r="F26">
-        <v>1.02979683972912</v>
-      </c>
       <c r="G26">
-        <v>1.062598610615722</v>
+        <v>1.048051504624625</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1734,22 +1740,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.151182085222883</v>
+      </c>
+      <c r="C27">
+        <v>1.122197425865832</v>
+      </c>
+      <c r="D27">
+        <v>1.022222222222222</v>
+      </c>
+      <c r="E27">
+        <v>0.9885484976020358</v>
+      </c>
+      <c r="F27">
         <v>0.8964334705075445</v>
       </c>
-      <c r="C27">
-        <v>0.9885484976020358</v>
-      </c>
-      <c r="D27">
-        <v>1.151182085222883</v>
-      </c>
-      <c r="E27">
-        <v>1.122197425865832</v>
-      </c>
-      <c r="F27">
-        <v>1.022222222222222</v>
-      </c>
       <c r="G27">
-        <v>1.0328878872416</v>
+        <v>1.014074730923574</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1763,22 +1769,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.210158552619677</v>
+      </c>
+      <c r="C28">
+        <v>1.160187383831868</v>
+      </c>
+      <c r="D28">
+        <v>1.032054176072235</v>
+      </c>
+      <c r="E28">
+        <v>1.028873446217089</v>
+      </c>
+      <c r="F28">
         <v>0.9183051364121323</v>
       </c>
-      <c r="C28">
-        <v>1.028873446217089</v>
-      </c>
-      <c r="D28">
-        <v>1.210158552619677</v>
-      </c>
-      <c r="E28">
-        <v>1.160187383831868</v>
-      </c>
-      <c r="F28">
-        <v>1.032054176072235</v>
-      </c>
       <c r="G28">
-        <v>1.06270531666531</v>
+        <v>1.046052561890505</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1792,22 +1798,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.265070188703061</v>
+      </c>
+      <c r="C29">
+        <v>1.196258304680301</v>
+      </c>
+      <c r="D29">
+        <v>1.052821670428894</v>
+      </c>
+      <c r="E29">
+        <v>1.080062640696878</v>
+      </c>
+      <c r="F29">
         <v>0.9423868312757201</v>
       </c>
-      <c r="C29">
-        <v>1.080062640696878</v>
-      </c>
-      <c r="D29">
-        <v>1.265070188703061</v>
-      </c>
-      <c r="E29">
-        <v>1.196258304680301</v>
-      </c>
-      <c r="F29">
-        <v>1.052821670428894</v>
-      </c>
       <c r="G29">
-        <v>1.097366762885132</v>
+        <v>1.081339409531912</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1821,22 +1827,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.293885689187007</v>
+      </c>
+      <c r="C30">
+        <v>1.214785032647653</v>
+      </c>
+      <c r="D30">
+        <v>1.075545522949586</v>
+      </c>
+      <c r="E30">
+        <v>1.108936086913967</v>
+      </c>
+      <c r="F30">
         <v>0.9370522786160647</v>
       </c>
-      <c r="C30">
-        <v>1.108936086913967</v>
-      </c>
-      <c r="D30">
-        <v>1.293885689187007</v>
-      </c>
-      <c r="E30">
-        <v>1.214785032647653</v>
-      </c>
-      <c r="F30">
-        <v>1.075545522949586</v>
-      </c>
       <c r="G30">
-        <v>1.116678713816188</v>
+        <v>1.09614074028268</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1850,22 +1856,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.3124880540376</v>
+      </c>
+      <c r="C31">
+        <v>1.194476137689634</v>
+      </c>
+      <c r="D31">
+        <v>1.069525959367946</v>
+      </c>
+      <c r="E31">
+        <v>1.181070764412254</v>
+      </c>
+      <c r="F31">
         <v>0.9961896052431031</v>
       </c>
-      <c r="C31">
-        <v>1.181070764412254</v>
-      </c>
-      <c r="D31">
-        <v>1.3124880540376</v>
-      </c>
-      <c r="E31">
-        <v>1.194476137689634</v>
-      </c>
-      <c r="F31">
-        <v>1.069525959367946</v>
-      </c>
       <c r="G31">
-        <v>1.136726921067827</v>
+        <v>1.126274941747587</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1879,22 +1885,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.281372034758234</v>
+      </c>
+      <c r="C32">
+        <v>1.170724968350102</v>
+      </c>
+      <c r="D32">
+        <v>1.071281665412591</v>
+      </c>
+      <c r="E32">
+        <v>1.197513947342664</v>
+      </c>
+      <c r="F32">
         <v>1.030025910684347</v>
       </c>
-      <c r="C32">
-        <v>1.197513947342664</v>
-      </c>
-      <c r="D32">
-        <v>1.281372034758234</v>
-      </c>
-      <c r="E32">
-        <v>1.170724968350102</v>
-      </c>
-      <c r="F32">
-        <v>1.071281665412591</v>
-      </c>
       <c r="G32">
-        <v>1.136800730963623</v>
+        <v>1.131116317158869</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1908,22 +1914,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.276114446379858</v>
+      </c>
+      <c r="C33">
+        <v>1.126369612185044</v>
+      </c>
+      <c r="D33">
+        <v>1.030850263355907</v>
+      </c>
+      <c r="E33">
+        <v>1.254477831065871</v>
+      </c>
+      <c r="F33">
         <v>1.053802773967383</v>
       </c>
-      <c r="C33">
-        <v>1.254477831065871</v>
-      </c>
-      <c r="D33">
-        <v>1.276114446379858</v>
-      </c>
-      <c r="E33">
-        <v>1.126369612185044</v>
-      </c>
-      <c r="F33">
-        <v>1.030850263355907</v>
-      </c>
       <c r="G33">
-        <v>1.128998159426311</v>
+        <v>1.133256340944863</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1937,22 +1943,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.245324018918102</v>
+      </c>
+      <c r="C34">
+        <v>1.125951491017229</v>
+      </c>
+      <c r="D34">
+        <v>1.018610484073238</v>
+      </c>
+      <c r="E34">
+        <v>1.237055887246746</v>
+      </c>
+      <c r="F34">
         <v>1.01882335009907</v>
       </c>
-      <c r="C34">
-        <v>1.237055887246746</v>
-      </c>
-      <c r="D34">
-        <v>1.245324018918102</v>
-      </c>
-      <c r="E34">
-        <v>1.125951491017229</v>
-      </c>
-      <c r="F34">
-        <v>1.018610484073238</v>
-      </c>
       <c r="G34">
-        <v>1.110901389232287</v>
+        <v>1.111513493489497</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1966,22 +1972,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.194330751039041</v>
+      </c>
+      <c r="C35">
+        <v>1.080099750203639</v>
+      </c>
+      <c r="D35">
+        <v>1.007424128417356</v>
+      </c>
+      <c r="E35">
+        <v>1.182343153567583</v>
+      </c>
+      <c r="F35">
         <v>1.006553878981862</v>
       </c>
-      <c r="C35">
-        <v>1.182343153567583</v>
-      </c>
-      <c r="D35">
-        <v>1.194330751039041</v>
-      </c>
-      <c r="E35">
-        <v>1.080099750203639</v>
-      </c>
-      <c r="F35">
-        <v>1.007424128417356</v>
-      </c>
       <c r="G35">
-        <v>1.079843490616176</v>
+        <v>1.080127566802785</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1995,22 +2001,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.194601190739756</v>
+      </c>
+      <c r="C36">
+        <v>1.071389372569089</v>
+      </c>
+      <c r="D36">
+        <v>1.007975921745673</v>
+      </c>
+      <c r="E36">
+        <v>1.168934129392189</v>
+      </c>
+      <c r="F36">
         <v>1.007239750038104</v>
       </c>
-      <c r="C36">
-        <v>1.168934129392189</v>
-      </c>
-      <c r="D36">
-        <v>1.194601190739756</v>
-      </c>
-      <c r="E36">
-        <v>1.071389372569089</v>
-      </c>
-      <c r="F36">
-        <v>1.007975921745673</v>
-      </c>
       <c r="G36">
-        <v>1.076470056625181</v>
+        <v>1.076797671712825</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2024,22 +2030,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.159340827636171</v>
+      </c>
+      <c r="C37">
+        <v>1.047416243955229</v>
+      </c>
+      <c r="D37">
+        <v>0.9890644594933534</v>
+      </c>
+      <c r="E37">
+        <v>1.116766174023686</v>
+      </c>
+      <c r="F37">
         <v>0.9740131077579637</v>
       </c>
-      <c r="C37">
-        <v>1.116766174023686</v>
-      </c>
-      <c r="D37">
-        <v>1.159340827636171</v>
-      </c>
-      <c r="E37">
-        <v>1.047416243955229</v>
-      </c>
-      <c r="F37">
-        <v>0.9890644594933534</v>
-      </c>
       <c r="G37">
-        <v>1.045938666348268</v>
+        <v>1.044035082260977</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2053,22 +2059,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.190366715771483</v>
+      </c>
+      <c r="C38">
+        <v>1.095415374640601</v>
+      </c>
+      <c r="D38">
+        <v>1.013844996237773</v>
+      </c>
+      <c r="E38">
+        <v>1.158069883527454</v>
+      </c>
+      <c r="F38">
         <v>0.9977899710409998</v>
       </c>
-      <c r="C38">
-        <v>1.158069883527454</v>
-      </c>
-      <c r="D38">
-        <v>1.190366715771483</v>
-      </c>
-      <c r="E38">
-        <v>1.095415374640601</v>
-      </c>
-      <c r="F38">
-        <v>1.013844996237773</v>
-      </c>
       <c r="G38">
-        <v>1.078219068953096</v>
+        <v>1.076219600974847</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2082,22 +2088,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.162769466326001</v>
+      </c>
+      <c r="C39">
+        <v>1.096756975004088</v>
+      </c>
+      <c r="D39">
+        <v>1.00887885628292</v>
+      </c>
+      <c r="E39">
+        <v>1.119213076245473</v>
+      </c>
+      <c r="F39">
         <v>1.007239750038104</v>
       </c>
-      <c r="C39">
-        <v>1.119213076245473</v>
-      </c>
-      <c r="D39">
-        <v>1.162769466326001</v>
-      </c>
-      <c r="E39">
-        <v>1.096756975004088</v>
-      </c>
-      <c r="F39">
-        <v>1.00887885628292</v>
-      </c>
       <c r="G39">
-        <v>1.067248865861036</v>
+        <v>1.067643781405874</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2111,22 +2117,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.170250328148155</v>
+      </c>
+      <c r="C40">
+        <v>1.092751255036991</v>
+      </c>
+      <c r="D40">
+        <v>1.018459994983697</v>
+      </c>
+      <c r="E40">
+        <v>1.160908290104727</v>
+      </c>
+      <c r="F40">
         <v>1.049763755525072</v>
       </c>
-      <c r="C40">
-        <v>1.160908290104727</v>
-      </c>
-      <c r="D40">
-        <v>1.170250328148155</v>
-      </c>
-      <c r="E40">
-        <v>1.092751255036991</v>
-      </c>
-      <c r="F40">
-        <v>1.018459994983697</v>
-      </c>
       <c r="G40">
-        <v>1.085301307327235</v>
+        <v>1.090728075504339</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2140,22 +2146,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.115512939440801</v>
+      </c>
+      <c r="C41">
+        <v>1.022998650553657</v>
+      </c>
+      <c r="D41">
+        <v>0.9931778279408076</v>
+      </c>
+      <c r="E41">
+        <v>1.115395908779485</v>
+      </c>
+      <c r="F41">
         <v>1.049916171315348</v>
       </c>
-      <c r="C41">
-        <v>1.115395908779485</v>
-      </c>
-      <c r="D41">
-        <v>1.115512939440801</v>
-      </c>
-      <c r="E41">
-        <v>1.022998650553657</v>
-      </c>
-      <c r="F41">
-        <v>0.9931778279408076</v>
-      </c>
       <c r="G41">
-        <v>1.048706149185674</v>
+        <v>1.057933973391971</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2169,22 +2175,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.109189416105186</v>
+      </c>
+      <c r="C42">
+        <v>1.024189476523347</v>
+      </c>
+      <c r="D42">
+        <v>0.9967895660897919</v>
+      </c>
+      <c r="E42">
+        <v>1.077713614563962</v>
+      </c>
+      <c r="F42">
         <v>1.02621551592745</v>
       </c>
-      <c r="C42">
-        <v>1.077713614563962</v>
-      </c>
-      <c r="D42">
-        <v>1.109189416105186</v>
-      </c>
-      <c r="E42">
-        <v>1.024189476523347</v>
-      </c>
-      <c r="F42">
-        <v>0.9967895660897919</v>
-      </c>
       <c r="G42">
-        <v>1.038616026276879</v>
+        <v>1.043618556810779</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2198,22 +2204,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>1.07910777662893</v>
+      </c>
+      <c r="C43">
+        <v>0.9697246010415811</v>
+      </c>
+      <c r="D43">
+        <v>0.965237020316027</v>
+      </c>
+      <c r="E43">
+        <v>1.047861407458158</v>
+      </c>
+      <c r="F43">
         <v>1.022557536960829</v>
       </c>
-      <c r="C43">
-        <v>1.047861407458158</v>
-      </c>
-      <c r="D43">
-        <v>1.07910777662893</v>
-      </c>
-      <c r="E43">
-        <v>0.9697246010415811</v>
-      </c>
-      <c r="F43">
-        <v>0.965237020316027</v>
-      </c>
       <c r="G43">
-        <v>1.008556779571151</v>
+        <v>1.017906731983801</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2227,22 +2233,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>1.035259831015209</v>
+      </c>
+      <c r="C44">
+        <v>0.9405647215503586</v>
+      </c>
+      <c r="D44">
+        <v>0.9509405568096313</v>
+      </c>
+      <c r="E44">
+        <v>1.030733091905647</v>
+      </c>
+      <c r="F44">
         <v>1.011278768480415</v>
       </c>
-      <c r="C44">
-        <v>1.030733091905647</v>
-      </c>
-      <c r="D44">
-        <v>1.035259831015209</v>
-      </c>
-      <c r="E44">
-        <v>0.9405647215503586</v>
-      </c>
-      <c r="F44">
-        <v>0.9509405568096313</v>
-      </c>
       <c r="G44">
-        <v>0.9869634511861276</v>
+        <v>0.9965883195727044</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2256,22 +2262,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>1.047741675812803</v>
+      </c>
+      <c r="C45">
+        <v>0.9575414961981824</v>
+      </c>
+      <c r="D45">
+        <v>0.9599699021820918</v>
+      </c>
+      <c r="E45">
+        <v>1.029852207105804</v>
+      </c>
+      <c r="F45">
         <v>1.022252705380277</v>
       </c>
-      <c r="C45">
-        <v>1.029852207105804</v>
-      </c>
-      <c r="D45">
-        <v>1.047741675812803</v>
-      </c>
-      <c r="E45">
-        <v>0.9575414961981824</v>
-      </c>
-      <c r="F45">
-        <v>0.9599699021820918</v>
-      </c>
       <c r="G45">
-        <v>0.9965196262245368</v>
+        <v>1.006562180049862</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2285,22 +2291,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>1.075413440765215</v>
+      </c>
+      <c r="C46">
+        <v>0.9878844301670798</v>
+      </c>
+      <c r="D46">
+        <v>0.9728618008527715</v>
+      </c>
+      <c r="E46">
+        <v>1.093080160516786</v>
+      </c>
+      <c r="F46">
         <v>1.046105776558451</v>
       </c>
-      <c r="C46">
-        <v>1.093080160516786</v>
-      </c>
-      <c r="D46">
-        <v>1.075413440765215</v>
-      </c>
-      <c r="E46">
-        <v>0.9878844301670798</v>
-      </c>
-      <c r="F46">
-        <v>0.9728618008527715</v>
-      </c>
       <c r="G46">
-        <v>1.025150152288034</v>
+        <v>1.036855967948756</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2314,22 +2320,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.09597699083295</v>
+      </c>
+      <c r="C47">
+        <v>1.003011366253994</v>
+      </c>
+      <c r="D47">
+        <v>0.9780285929270127</v>
+      </c>
+      <c r="E47">
+        <v>1.080160516785749</v>
+      </c>
+      <c r="F47">
         <v>1.060051821368694</v>
       </c>
-      <c r="C47">
-        <v>1.080160516785749</v>
-      </c>
-      <c r="D47">
-        <v>1.09597699083295</v>
-      </c>
-      <c r="E47">
-        <v>1.003011366253994</v>
-      </c>
-      <c r="F47">
-        <v>0.9780285929270127</v>
-      </c>
       <c r="G47">
-        <v>1.032918612071515</v>
+        <v>1.046246324859055</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2343,22 +2349,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>1.065170022362981</v>
+      </c>
+      <c r="C48">
+        <v>0.957573314623156</v>
+      </c>
+      <c r="D48">
+        <v>0.9645849009280161</v>
+      </c>
+      <c r="E48">
+        <v>1.082411666829794</v>
+      </c>
+      <c r="F48">
         <v>1.073083371437281</v>
       </c>
-      <c r="C48">
-        <v>1.082411666829794</v>
-      </c>
-      <c r="D48">
-        <v>1.065170022362981</v>
-      </c>
-      <c r="E48">
-        <v>0.957573314623156</v>
-      </c>
-      <c r="F48">
-        <v>0.9645849009280161</v>
-      </c>
       <c r="G48">
-        <v>1.018499824414361</v>
+        <v>1.035738313541984</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2372,22 +2378,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>1.076751110942694</v>
+      </c>
+      <c r="C49">
+        <v>0.9641298964915476</v>
+      </c>
+      <c r="D49">
+        <v>0.9754201153749685</v>
+      </c>
+      <c r="E49">
+        <v>1.059704414211608</v>
+      </c>
+      <c r="F49">
         <v>1.054336229233348</v>
       </c>
-      <c r="C49">
-        <v>1.059704414211608</v>
-      </c>
-      <c r="D49">
-        <v>1.076751110942694</v>
-      </c>
-      <c r="E49">
-        <v>0.9641298964915476</v>
-      </c>
-      <c r="F49">
-        <v>0.9754201153749685</v>
-      </c>
       <c r="G49">
-        <v>1.018020913686032</v>
+        <v>1.030676274292611</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2401,22 +2407,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>1.089631327994035</v>
+      </c>
+      <c r="C50">
+        <v>0.9797492298432793</v>
+      </c>
+      <c r="D50">
+        <v>0.9900677200902934</v>
+      </c>
+      <c r="E50">
+        <v>1.065576979543897</v>
+      </c>
+      <c r="F50">
         <v>1.063404968754763</v>
       </c>
-      <c r="C50">
-        <v>1.065576979543897</v>
-      </c>
-      <c r="D50">
-        <v>1.089631327994035</v>
-      </c>
-      <c r="E50">
-        <v>0.9797492298432793</v>
-      </c>
-      <c r="F50">
-        <v>0.9900677200902934</v>
-      </c>
       <c r="G50">
-        <v>1.030097070883726</v>
+        <v>1.041899709961057</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2430,22 +2436,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>1.112576575035959</v>
+      </c>
+      <c r="C51">
+        <v>0.9930284130093138</v>
+      </c>
+      <c r="D51">
+        <v>0.9987459242538249</v>
+      </c>
+      <c r="E51">
+        <v>1.065674855632769</v>
+      </c>
+      <c r="F51">
         <v>1.050449626581314</v>
       </c>
-      <c r="C51">
-        <v>1.065674855632769</v>
-      </c>
-      <c r="D51">
-        <v>1.112576575035959</v>
-      </c>
-      <c r="E51">
-        <v>0.9930284130093138</v>
-      </c>
-      <c r="F51">
-        <v>0.9987459242538249</v>
-      </c>
       <c r="G51">
-        <v>1.036752140007626</v>
+        <v>1.045230653420818</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2459,22 +2465,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>1.070850574731789</v>
+      </c>
+      <c r="C52">
+        <v>0.9594343262556518</v>
+      </c>
+      <c r="D52">
+        <v>0.9784800601956357</v>
+      </c>
+      <c r="E52">
+        <v>1.042869726925712</v>
+      </c>
+      <c r="F52">
         <v>1.038332571254382</v>
       </c>
-      <c r="C52">
-        <v>1.042869726925712</v>
-      </c>
-      <c r="D52">
-        <v>1.070850574731789</v>
-      </c>
-      <c r="E52">
-        <v>0.9594343262556518</v>
-      </c>
-      <c r="F52">
-        <v>0.9784800601956357</v>
-      </c>
       <c r="G52">
-        <v>1.011699819218104</v>
+        <v>1.021320896556833</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2488,22 +2494,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>1.060214128093845</v>
+      </c>
+      <c r="C53">
+        <v>0.9743116683378479</v>
+      </c>
+      <c r="D53">
+        <v>0.9925257085527965</v>
+      </c>
+      <c r="E53">
+        <v>1.046491142213957</v>
+      </c>
+      <c r="F53">
         <v>1.04541990550221</v>
       </c>
-      <c r="C53">
-        <v>1.046491142213957</v>
-      </c>
-      <c r="D53">
-        <v>1.060214128093845</v>
-      </c>
-      <c r="E53">
-        <v>0.9743116683378479</v>
-      </c>
-      <c r="F53">
-        <v>0.9925257085527965</v>
-      </c>
       <c r="G53">
-        <v>1.018855118345401</v>
+        <v>1.027295734585632</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2517,22 +2523,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>1.020175449433074</v>
+      </c>
+      <c r="C54">
+        <v>0.9522220340594204</v>
+      </c>
+      <c r="D54">
+        <v>0.9775771256583898</v>
+      </c>
+      <c r="E54">
+        <v>1.005970441421161</v>
+      </c>
+      <c r="F54">
         <v>1.005639384240207</v>
       </c>
-      <c r="C54">
-        <v>1.005970441421161</v>
-      </c>
-      <c r="D54">
-        <v>1.020175449433074</v>
-      </c>
-      <c r="E54">
-        <v>0.9522220340594204</v>
-      </c>
-      <c r="F54">
-        <v>0.9775771256583898</v>
-      </c>
       <c r="G54">
-        <v>0.9900197066059628</v>
+        <v>0.9944539175611185</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2546,22 +2552,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9741431653641376</v>
+      </c>
+      <c r="C55">
+        <v>0.9211961771261079</v>
+      </c>
+      <c r="D55">
+        <v>0.9655881615249561</v>
+      </c>
+      <c r="E55">
+        <v>0.9642752275619065</v>
+      </c>
+      <c r="F55">
         <v>0.9823197683279987</v>
       </c>
-      <c r="C55">
-        <v>0.9642752275619065</v>
-      </c>
-      <c r="D55">
-        <v>0.9741431653641376</v>
-      </c>
-      <c r="E55">
-        <v>0.9211961771261079</v>
-      </c>
-      <c r="F55">
-        <v>0.9655881615249561</v>
-      </c>
       <c r="G55">
-        <v>0.96229623411541</v>
+        <v>0.9648006709709137</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2575,22 +2581,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9976130746791589</v>
+      </c>
+      <c r="C56">
+        <v>0.9254323106583666</v>
+      </c>
+      <c r="D56">
+        <v>0.9624780536744419</v>
+      </c>
+      <c r="E56">
+        <v>0.9700499168053244</v>
+      </c>
+      <c r="F56">
         <v>1.002819692120104</v>
       </c>
-      <c r="C56">
-        <v>0.9700499168053244</v>
-      </c>
-      <c r="D56">
-        <v>0.9976130746791589</v>
-      </c>
-      <c r="E56">
-        <v>0.9254323106583666</v>
-      </c>
-      <c r="F56">
-        <v>0.9624780536744419</v>
-      </c>
       <c r="G56">
-        <v>0.9703080798105803</v>
+        <v>0.976715329036175</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2604,22 +2610,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>1.017505938915977</v>
+      </c>
+      <c r="C57">
+        <v>0.966795915517327</v>
+      </c>
+      <c r="D57">
+        <v>0.9837973413594181</v>
+      </c>
+      <c r="E57">
+        <v>1.003132034843887</v>
+      </c>
+      <c r="F57">
         <v>1.005105928974242</v>
       </c>
-      <c r="C57">
-        <v>1.003132034843887</v>
-      </c>
-      <c r="D57">
-        <v>1.017505938915977</v>
-      </c>
-      <c r="E57">
-        <v>0.966795915517327</v>
-      </c>
-      <c r="F57">
-        <v>0.9837973413594181</v>
-      </c>
       <c r="G57">
-        <v>0.9934633824791852</v>
+        <v>0.9968596188887069</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2633,22 +2639,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>1.029999165777963</v>
+      </c>
+      <c r="C58">
+        <v>0.9613277397957485</v>
+      </c>
+      <c r="D58">
+        <v>0.980536744419363</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>1.053878981862521</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1.029999165777963</v>
-      </c>
-      <c r="E58">
-        <v>0.9613277397957485</v>
-      </c>
-      <c r="F58">
-        <v>0.980536744419363</v>
-      </c>
       <c r="G58">
-        <v>1.001305491994681</v>
+        <v>1.013094200791358</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2662,22 +2668,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>1.045284792437646</v>
+      </c>
+      <c r="C59">
+        <v>0.9855462042326004</v>
+      </c>
+      <c r="D59">
+        <v>0.982141961374467</v>
+      </c>
+      <c r="E59">
+        <v>1.01380052853088</v>
+      </c>
+      <c r="F59">
         <v>1.038103947568968</v>
       </c>
-      <c r="C59">
-        <v>1.01380052853088</v>
-      </c>
-      <c r="D59">
-        <v>1.045284792437646</v>
-      </c>
-      <c r="E59">
-        <v>0.9855462042326004</v>
-      </c>
-      <c r="F59">
-        <v>0.982141961374467</v>
-      </c>
       <c r="G59">
-        <v>1.008017722641139</v>
+        <v>1.017146082966084</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2691,22 +2697,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>1.023160511491466</v>
+      </c>
+      <c r="C60">
+        <v>0.9740848425701178</v>
+      </c>
+      <c r="D60">
+        <v>0.9779784298971658</v>
+      </c>
+      <c r="E60">
+        <v>0.9898208867573652</v>
+      </c>
+      <c r="F60">
         <v>1.034827008078037</v>
       </c>
-      <c r="C60">
-        <v>0.9898208867573652</v>
-      </c>
-      <c r="D60">
-        <v>1.023160511491466</v>
-      </c>
-      <c r="E60">
-        <v>0.9740848425701178</v>
-      </c>
-      <c r="F60">
-        <v>0.9779784298971658</v>
-      </c>
       <c r="G60">
-        <v>0.9964685074082444</v>
+        <v>1.005711510104219</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2720,22 +2726,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>1.041828415749427</v>
+      </c>
+      <c r="C61">
+        <v>0.987651620598789</v>
+      </c>
+      <c r="D61">
+        <v>0.9935791321795836</v>
+      </c>
+      <c r="E61">
+        <v>0.9985318586669276</v>
+      </c>
+      <c r="F61">
         <v>1.039018442310623</v>
       </c>
-      <c r="C61">
-        <v>0.9985318586669276</v>
-      </c>
-      <c r="D61">
-        <v>1.041828415749427</v>
-      </c>
-      <c r="E61">
-        <v>0.987651620598789</v>
-      </c>
-      <c r="F61">
-        <v>0.9935791321795836</v>
-      </c>
       <c r="G61">
-        <v>1.009128870782902</v>
+        <v>1.016586005631377</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2749,22 +2755,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.048781214559733</v>
+      </c>
+      <c r="C62">
+        <v>0.9912429189262187</v>
+      </c>
+      <c r="D62">
+        <v>1.006571356909957</v>
+      </c>
+      <c r="E62">
+        <v>1.007047078398747</v>
+      </c>
+      <c r="F62">
         <v>1.026444139612864</v>
       </c>
-      <c r="C62">
-        <v>1.007047078398747</v>
-      </c>
-      <c r="D62">
-        <v>1.048781214559733</v>
-      </c>
-      <c r="E62">
-        <v>0.9912429189262187</v>
-      </c>
-      <c r="F62">
-        <v>1.006571356909957</v>
-      </c>
       <c r="G62">
-        <v>1.014466036867442</v>
+        <v>1.017777710590793</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2778,22 +2784,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>1.043656648275379</v>
+      </c>
+      <c r="C63">
+        <v>0.9972846580704282</v>
+      </c>
+      <c r="D63">
+        <v>1.000752445447705</v>
+      </c>
+      <c r="E63">
+        <v>1.012528139375551</v>
+      </c>
+      <c r="F63">
         <v>1.035970126505106</v>
       </c>
-      <c r="C63">
-        <v>1.012528139375551</v>
-      </c>
-      <c r="D63">
-        <v>1.043656648275379</v>
-      </c>
-      <c r="E63">
-        <v>0.9972846580704282</v>
-      </c>
-      <c r="F63">
-        <v>1.000752445447705</v>
-      </c>
       <c r="G63">
-        <v>1.015248327744513</v>
+        <v>1.021021460321309</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2807,22 +2813,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>1.04392928573243</v>
+      </c>
+      <c r="C64">
+        <v>0.9818758502164342</v>
+      </c>
+      <c r="D64">
+        <v>0.9966390770002508</v>
+      </c>
+      <c r="E64">
+        <v>1.024664774395615</v>
+      </c>
+      <c r="F64">
         <v>1.051135497637555</v>
       </c>
-      <c r="C64">
-        <v>1.024664774395615</v>
-      </c>
-      <c r="D64">
-        <v>1.04392928573243</v>
-      </c>
-      <c r="E64">
-        <v>0.9818758502164342</v>
-      </c>
-      <c r="F64">
-        <v>0.9966390770002508</v>
-      </c>
       <c r="G64">
-        <v>1.016034789087284</v>
+        <v>1.024776722812018</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2836,22 +2842,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>1.049096835503861</v>
+      </c>
+      <c r="C65">
+        <v>0.9747396466377068</v>
+      </c>
+      <c r="D65">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="E65">
+        <v>1.037584418126652</v>
+      </c>
+      <c r="F65">
         <v>1.058451455570797</v>
       </c>
-      <c r="C65">
-        <v>1.037584418126652</v>
-      </c>
-      <c r="D65">
-        <v>1.049096835503861</v>
-      </c>
-      <c r="E65">
-        <v>0.9747396466377068</v>
-      </c>
-      <c r="F65">
-        <v>0.9962377727614747</v>
-      </c>
       <c r="G65">
-        <v>1.019017583093212</v>
+        <v>1.028921843798971</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2865,22 +2871,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>1.028702859688156</v>
+      </c>
+      <c r="C66">
+        <v>0.9524671215919324</v>
+      </c>
+      <c r="D66">
+        <v>0.9893654376724353</v>
+      </c>
+      <c r="E66">
+        <v>1.035039639815993</v>
+      </c>
+      <c r="F66">
         <v>1.075369608291419</v>
       </c>
-      <c r="C66">
-        <v>1.035039639815993</v>
-      </c>
-      <c r="D66">
-        <v>1.028702859688156</v>
-      </c>
-      <c r="E66">
-        <v>0.9524671215919324</v>
-      </c>
-      <c r="F66">
-        <v>0.9893654376724353</v>
-      </c>
       <c r="G66">
-        <v>1.012153213521378</v>
+        <v>1.025697705339374</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2894,22 +2900,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9884542143273263</v>
+      </c>
+      <c r="C67">
+        <v>0.9278043537561812</v>
+      </c>
+      <c r="D67">
+        <v>0.9704038123902684</v>
+      </c>
+      <c r="E67">
+        <v>0.9920720368014094</v>
+      </c>
+      <c r="F67">
         <v>1.067977442463039</v>
       </c>
-      <c r="C67">
-        <v>0.9920720368014094</v>
-      </c>
-      <c r="D67">
-        <v>0.9884542143273263</v>
-      </c>
-      <c r="E67">
-        <v>0.9278043537561812</v>
-      </c>
-      <c r="F67">
-        <v>0.9704038123902684</v>
-      </c>
       <c r="G67">
-        <v>0.9866243332975235</v>
+        <v>1.002005027703626</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2923,22 +2929,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9941718740767979</v>
+      </c>
+      <c r="C68">
+        <v>0.9331816427476655</v>
+      </c>
+      <c r="D68">
+        <v>0.9554552294958616</v>
+      </c>
+      <c r="E68">
+        <v>0.9850249584026621</v>
+      </c>
+      <c r="F68">
         <v>1.044657826550831</v>
       </c>
-      <c r="C68">
-        <v>0.9850249584026621</v>
-      </c>
-      <c r="D68">
-        <v>0.9941718740767979</v>
-      </c>
-      <c r="E68">
-        <v>0.9331816427476655</v>
-      </c>
-      <c r="F68">
-        <v>0.9554552294958616</v>
-      </c>
       <c r="G68">
-        <v>0.9783596294517647</v>
+        <v>0.9925664116251893</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2952,22 +2958,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>1.00758346234163</v>
+      </c>
+      <c r="C69">
+        <v>0.9573434845406216</v>
+      </c>
+      <c r="D69">
+        <v>0.9788813644344119</v>
+      </c>
+      <c r="E69">
+        <v>1.008515219731819</v>
+      </c>
+      <c r="F69">
         <v>1.053574150281969</v>
       </c>
-      <c r="C69">
-        <v>1.008515219731819</v>
-      </c>
-      <c r="D69">
-        <v>1.00758346234163</v>
-      </c>
-      <c r="E69">
-        <v>0.9573434845406216</v>
-      </c>
-      <c r="F69">
-        <v>0.9788813644344119</v>
-      </c>
       <c r="G69">
-        <v>0.9977989894012715</v>
+        <v>1.009637486950461</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2981,22 +2987,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>1.008155989434298</v>
+      </c>
+      <c r="C70">
+        <v>0.9588850704709834</v>
+      </c>
+      <c r="D70">
+        <v>0.9742162026586405</v>
+      </c>
+      <c r="E70">
+        <v>1.024273270040129</v>
+      </c>
+      <c r="F70">
         <v>1.062795305593659</v>
       </c>
-      <c r="C70">
-        <v>1.024273270040129</v>
-      </c>
-      <c r="D70">
-        <v>1.008155989434298</v>
-      </c>
-      <c r="E70">
-        <v>0.9588850704709834</v>
-      </c>
-      <c r="F70">
-        <v>0.9742162026586405</v>
-      </c>
       <c r="G70">
-        <v>1.000854779619467</v>
+        <v>1.014870194025103</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3010,22 +3016,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>1.00600246583634</v>
+      </c>
+      <c r="C71">
+        <v>0.9539997194069288</v>
+      </c>
+      <c r="D71">
+        <v>0.9871081013293203</v>
+      </c>
+      <c r="E71">
+        <v>1.01840070470784</v>
+      </c>
+      <c r="F71">
         <v>1.095412284712696</v>
       </c>
-      <c r="C71">
-        <v>1.01840070470784</v>
-      </c>
-      <c r="D71">
-        <v>1.00600246583634</v>
-      </c>
-      <c r="E71">
-        <v>0.9539997194069288</v>
-      </c>
-      <c r="F71">
-        <v>0.9871081013293203</v>
-      </c>
       <c r="G71">
-        <v>1.008494242205306</v>
+        <v>1.025595378442677</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3039,22 +3045,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>1.037399867329547</v>
+      </c>
+      <c r="C72">
+        <v>0.9988562623197857</v>
+      </c>
+      <c r="D72">
+        <v>1.011286681715576</v>
+      </c>
+      <c r="E72">
+        <v>1.056670255456592</v>
+      </c>
+      <c r="F72">
         <v>1.107529340039628</v>
       </c>
-      <c r="C72">
-        <v>1.056670255456592</v>
-      </c>
-      <c r="D72">
-        <v>1.037399867329547</v>
-      </c>
-      <c r="E72">
-        <v>0.9988562623197857</v>
-      </c>
-      <c r="F72">
-        <v>1.011286681715576</v>
-      </c>
       <c r="G72">
-        <v>1.037620797592637</v>
+        <v>1.052861118886872</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3068,22 +3074,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>1.045566012711545</v>
+      </c>
+      <c r="C73">
+        <v>0.9977594639547586</v>
+      </c>
+      <c r="D73">
+        <v>1.00551793328317</v>
+      </c>
+      <c r="E73">
+        <v>1.046784770480572</v>
+      </c>
+      <c r="F73">
         <v>1.101661332114007</v>
       </c>
-      <c r="C73">
-        <v>1.046784770480572</v>
-      </c>
-      <c r="D73">
-        <v>1.045566012711545</v>
-      </c>
-      <c r="E73">
-        <v>0.9977594639547586</v>
-      </c>
-      <c r="F73">
-        <v>1.00551793328317</v>
-      </c>
       <c r="G73">
-        <v>1.034205459074465</v>
+        <v>1.049543516751911</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3097,22 +3103,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.044965215532113</v>
+      </c>
+      <c r="C74">
+        <v>0.9944365800504087</v>
+      </c>
+      <c r="D74">
+        <v>1.001906195134186</v>
+      </c>
+      <c r="E74">
+        <v>1.039346187726339</v>
+      </c>
+      <c r="F74">
         <v>1.099679926840421</v>
       </c>
-      <c r="C74">
-        <v>1.039346187726339</v>
-      </c>
-      <c r="D74">
-        <v>1.044965215532113</v>
-      </c>
-      <c r="E74">
-        <v>0.9944365800504087</v>
-      </c>
-      <c r="F74">
-        <v>1.001906195134186</v>
-      </c>
       <c r="G74">
-        <v>1.030764780141747</v>
+        <v>1.046399324278354</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3126,22 +3132,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.04118637015371</v>
+      </c>
+      <c r="C75">
+        <v>0.9946952863157321</v>
+      </c>
+      <c r="D75">
+        <v>1.001755706044645</v>
+      </c>
+      <c r="E75">
+        <v>1.043652735636684</v>
+      </c>
+      <c r="F75">
         <v>1.110730071635421</v>
       </c>
-      <c r="C75">
-        <v>1.043652735636684</v>
-      </c>
-      <c r="D75">
-        <v>1.04118637015371</v>
-      </c>
-      <c r="E75">
-        <v>0.9946952863157321</v>
-      </c>
-      <c r="F75">
-        <v>1.001755706044645</v>
-      </c>
       <c r="G75">
-        <v>1.032744933548449</v>
+        <v>1.050133198116914</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3155,22 +3161,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.053591941239306</v>
+      </c>
+      <c r="C76">
+        <v>1.011937222781352</v>
+      </c>
+      <c r="D76">
+        <v>1.002758966641585</v>
+      </c>
+      <c r="E76">
+        <v>1.055006361945777</v>
+      </c>
+      <c r="F76">
         <v>1.095564700502972</v>
       </c>
-      <c r="C76">
-        <v>1.055006361945777</v>
-      </c>
-      <c r="D76">
-        <v>1.053591941239306</v>
-      </c>
-      <c r="E76">
-        <v>1.011937222781352</v>
-      </c>
-      <c r="F76">
-        <v>1.002758966641585</v>
-      </c>
       <c r="G76">
-        <v>1.037319851671419</v>
+        <v>1.052207588266407</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3184,22 +3190,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.058537054935256</v>
+      </c>
+      <c r="C77">
+        <v>0.9875027952852568</v>
+      </c>
+      <c r="D77">
+        <v>0.9956358164033107</v>
+      </c>
+      <c r="E77">
+        <v>1.06313007732211</v>
+      </c>
+      <c r="F77">
         <v>1.118350861149215</v>
       </c>
-      <c r="C77">
-        <v>1.06313007732211</v>
-      </c>
-      <c r="D77">
-        <v>1.058537054935256</v>
-      </c>
-      <c r="E77">
-        <v>0.9875027952852568</v>
-      </c>
-      <c r="F77">
-        <v>0.9956358164033107</v>
-      </c>
       <c r="G77">
-        <v>1.037008154239603</v>
+        <v>1.056578931181423</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3213,22 +3219,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.052217302486828</v>
+      </c>
+      <c r="C78">
+        <v>0.9833019065865914</v>
+      </c>
+      <c r="D78">
+        <v>0.9970403812390268</v>
+      </c>
+      <c r="E78">
+        <v>1.065479103455026</v>
+      </c>
+      <c r="F78">
         <v>1.10227099527511</v>
       </c>
-      <c r="C78">
-        <v>1.065479103455026</v>
-      </c>
-      <c r="D78">
-        <v>1.052217302486828</v>
-      </c>
-      <c r="E78">
-        <v>0.9833019065865914</v>
-      </c>
-      <c r="F78">
-        <v>0.9970403812390268</v>
-      </c>
       <c r="G78">
-        <v>1.033401512090116</v>
+        <v>1.050103408957787</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3242,22 +3248,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.062599341478172</v>
+      </c>
+      <c r="C79">
+        <v>1.008222176478839</v>
+      </c>
+      <c r="D79">
+        <v>1.006069726611487</v>
+      </c>
+      <c r="E79">
+        <v>1.065870607810512</v>
+      </c>
+      <c r="F79">
         <v>1.139308032312148</v>
       </c>
-      <c r="C79">
-        <v>1.065870607810512</v>
-      </c>
-      <c r="D79">
-        <v>1.062599341478172</v>
-      </c>
-      <c r="E79">
-        <v>1.008222176478839</v>
-      </c>
-      <c r="F79">
-        <v>1.006069726611487</v>
-      </c>
       <c r="G79">
-        <v>1.04856892906555</v>
+        <v>1.069881463895331</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3271,22 +3277,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.05600165382321</v>
+      </c>
+      <c r="C80">
+        <v>1.010195961647215</v>
+      </c>
+      <c r="D80">
+        <v>1.007424128417356</v>
+      </c>
+      <c r="E80">
+        <v>1.076049721053147</v>
+      </c>
+      <c r="F80">
         <v>1.147843316567596</v>
       </c>
-      <c r="C80">
-        <v>1.076049721053147</v>
-      </c>
-      <c r="D80">
-        <v>1.05600165382321</v>
-      </c>
-      <c r="E80">
-        <v>1.010195961647215</v>
-      </c>
-      <c r="F80">
-        <v>1.007424128417356</v>
-      </c>
       <c r="G80">
-        <v>1.051434385325874</v>
+        <v>1.073815074259912</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3300,22 +3306,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.050084530335538</v>
+      </c>
+      <c r="C81">
+        <v>1.023828313191575</v>
+      </c>
+      <c r="D81">
+        <v>1.001555053925257</v>
+      </c>
+      <c r="E81">
+        <v>1.073798571009102</v>
+      </c>
+      <c r="F81">
         <v>1.110196616369456</v>
       </c>
-      <c r="C81">
-        <v>1.073798571009102</v>
-      </c>
-      <c r="D81">
-        <v>1.050084530335538</v>
-      </c>
-      <c r="E81">
-        <v>1.023828313191575</v>
-      </c>
-      <c r="F81">
-        <v>1.001555053925257</v>
-      </c>
       <c r="G81">
-        <v>1.043987968831664</v>
+        <v>1.061363414915699</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3329,22 +3335,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.061676769636872</v>
+      </c>
+      <c r="C82">
+        <v>1.015476504253284</v>
+      </c>
+      <c r="D82">
+        <v>0.9905693503887634</v>
+      </c>
+      <c r="E82">
+        <v>1.10061661935989</v>
+      </c>
+      <c r="F82">
         <v>1.165599756134736</v>
       </c>
-      <c r="C82">
-        <v>1.10061661935989</v>
-      </c>
-      <c r="D82">
-        <v>1.061676769636872</v>
-      </c>
-      <c r="E82">
-        <v>1.015476504253284</v>
-      </c>
-      <c r="F82">
-        <v>0.9905693503887634</v>
-      </c>
       <c r="G82">
-        <v>1.054874959654254</v>
+        <v>1.082809661094317</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3358,22 +3364,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.07032218784006</v>
+      </c>
+      <c r="C83">
+        <v>0.9879733678169083</v>
+      </c>
+      <c r="D83">
+        <v>0.9713569099573613</v>
+      </c>
+      <c r="E83">
+        <v>1.129587941665851</v>
+      </c>
+      <c r="F83">
         <v>1.218030787989636</v>
       </c>
-      <c r="C83">
-        <v>1.129587941665851</v>
-      </c>
-      <c r="D83">
-        <v>1.07032218784006</v>
-      </c>
-      <c r="E83">
-        <v>0.9879733678169083</v>
-      </c>
-      <c r="F83">
-        <v>0.9713569099573613</v>
-      </c>
       <c r="G83">
-        <v>1.059261731010762</v>
+        <v>1.098516305016094</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3387,22 +3393,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.059070970919242</v>
+      </c>
+      <c r="C84">
+        <v>0.9855024306210293</v>
+      </c>
+      <c r="D84">
+        <v>0.9787810383747179</v>
+      </c>
+      <c r="E84">
+        <v>1.185181560144857</v>
+      </c>
+      <c r="F84">
         <v>1.290504496265813</v>
       </c>
-      <c r="C84">
-        <v>1.185181560144857</v>
-      </c>
-      <c r="D84">
-        <v>1.059070970919242</v>
-      </c>
-      <c r="E84">
-        <v>0.9855024306210293</v>
-      </c>
-      <c r="F84">
-        <v>0.9787810383747179</v>
-      </c>
       <c r="G84">
-        <v>1.081218983507616</v>
+        <v>1.130497790785294</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3416,22 +3422,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.034243889231045</v>
+      </c>
+      <c r="C85">
+        <v>0.9754708124423276</v>
+      </c>
+      <c r="D85">
+        <v>0.9783797341359417</v>
+      </c>
+      <c r="E85">
+        <v>1.136341391797984</v>
+      </c>
+      <c r="F85">
         <v>1.2533150434385</v>
       </c>
-      <c r="C85">
-        <v>1.136341391797984</v>
-      </c>
-      <c r="D85">
-        <v>1.034243889231045</v>
-      </c>
-      <c r="E85">
-        <v>0.9754708124423276</v>
-      </c>
-      <c r="F85">
-        <v>0.9783797341359417</v>
-      </c>
       <c r="G85">
-        <v>1.06070983203117</v>
+        <v>1.104174449398276</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3445,22 +3451,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.042232756646698</v>
+      </c>
+      <c r="C86">
+        <v>0.9719066646788531</v>
+      </c>
+      <c r="D86">
+        <v>0.9870077752696262</v>
+      </c>
+      <c r="E86">
+        <v>1.141920328863659</v>
+      </c>
+      <c r="F86">
         <v>1.267946959304984</v>
       </c>
-      <c r="C86">
-        <v>1.141920328863659</v>
-      </c>
-      <c r="D86">
-        <v>1.042232756646698</v>
-      </c>
-      <c r="E86">
-        <v>0.9719066646788531</v>
-      </c>
-      <c r="F86">
-        <v>0.9870077752696262</v>
-      </c>
       <c r="G86">
-        <v>1.067723009346362</v>
+        <v>1.11209933537798</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3474,22 +3480,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.01493366176604</v>
+      </c>
+      <c r="C87">
+        <v>0.9534158271003422</v>
+      </c>
+      <c r="D87">
+        <v>0.9671933784800602</v>
+      </c>
+      <c r="E87">
+        <v>1.084662816873838</v>
+      </c>
+      <c r="F87">
         <v>1.201722298430117</v>
       </c>
-      <c r="C87">
-        <v>1.084662816873838</v>
-      </c>
-      <c r="D87">
-        <v>1.01493366176604</v>
-      </c>
-      <c r="E87">
-        <v>0.9534158271003422</v>
-      </c>
-      <c r="F87">
-        <v>0.9671933784800602</v>
-      </c>
       <c r="G87">
-        <v>1.032636950163045</v>
+        <v>1.069744043822617</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3503,22 +3509,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.029181924300851</v>
+      </c>
+      <c r="C88">
+        <v>0.9784768404510082</v>
+      </c>
+      <c r="D88">
+        <v>0.9841484825683471</v>
+      </c>
+      <c r="E88">
+        <v>1.089850249584027</v>
+      </c>
+      <c r="F88">
         <v>1.185566224660875</v>
       </c>
-      <c r="C88">
-        <v>1.089850249584027</v>
-      </c>
-      <c r="D88">
-        <v>1.029181924300851</v>
-      </c>
-      <c r="E88">
-        <v>0.9784768404510082</v>
-      </c>
-      <c r="F88">
-        <v>0.9841484825683471</v>
-      </c>
       <c r="G88">
-        <v>1.042853496053245</v>
+        <v>1.074748634951046</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3532,22 +3538,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.056542139941927</v>
+      </c>
+      <c r="C89">
+        <v>1.00820822255388</v>
+      </c>
+      <c r="D89">
+        <v>0.9980938048658139</v>
+      </c>
+      <c r="E89">
+        <v>1.121757854556132</v>
+      </c>
+      <c r="F89">
         <v>1.185261393080323</v>
       </c>
-      <c r="C89">
-        <v>1.121757854556132</v>
-      </c>
-      <c r="D89">
-        <v>1.056542139941927</v>
-      </c>
-      <c r="E89">
-        <v>1.00820822255388</v>
-      </c>
-      <c r="F89">
-        <v>0.9980938048658139</v>
-      </c>
       <c r="G89">
-        <v>1.062248037515724</v>
+        <v>1.091919345145415</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3561,22 +3567,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.062286982467133</v>
+      </c>
+      <c r="C90">
+        <v>1.000863988796736</v>
+      </c>
+      <c r="D90">
+        <v>1.000551793328317</v>
+      </c>
+      <c r="E90">
+        <v>1.136047763531369</v>
+      </c>
+      <c r="F90">
         <v>1.192196311537875</v>
       </c>
-      <c r="C90">
-        <v>1.136047763531369</v>
-      </c>
-      <c r="D90">
-        <v>1.062286982467133</v>
-      </c>
-      <c r="E90">
-        <v>1.000863988796736</v>
-      </c>
-      <c r="F90">
-        <v>1.000551793328317</v>
-      </c>
       <c r="G90">
-        <v>1.066403494818655</v>
+        <v>1.096699374804205</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3590,22 +3596,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.063405200890892</v>
+      </c>
+      <c r="C91">
+        <v>1.012187536828461</v>
+      </c>
+      <c r="D91">
+        <v>1.005467770253323</v>
+      </c>
+      <c r="E91">
+        <v>1.142311833219144</v>
+      </c>
+      <c r="F91">
         <v>1.168876695625667</v>
       </c>
-      <c r="C91">
-        <v>1.142311833219144</v>
-      </c>
-      <c r="D91">
-        <v>1.063405200890892</v>
-      </c>
-      <c r="E91">
-        <v>1.012187536828461</v>
-      </c>
-      <c r="F91">
-        <v>1.005467770253323</v>
-      </c>
       <c r="G91">
-        <v>1.067179215810908</v>
+        <v>1.092963709541718</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3619,22 +3625,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.046147145755339</v>
+      </c>
+      <c r="C92">
+        <v>1.012817151826885</v>
+      </c>
+      <c r="D92">
+        <v>1.008577878103837</v>
+      </c>
+      <c r="E92">
+        <v>1.107957326025252</v>
+      </c>
+      <c r="F92">
         <v>1.12002743484225</v>
       </c>
-      <c r="C92">
-        <v>1.107957326025252</v>
-      </c>
-      <c r="D92">
-        <v>1.046147145755339</v>
-      </c>
-      <c r="E92">
-        <v>1.012817151826885</v>
-      </c>
-      <c r="F92">
-        <v>1.008577878103837</v>
-      </c>
       <c r="G92">
-        <v>1.051317218222809</v>
+        <v>1.06886129276822</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3648,22 +3654,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.037479217900415</v>
+      </c>
+      <c r="C93">
+        <v>1.004362736847858</v>
+      </c>
+      <c r="D93">
+        <v>1.006471030850263</v>
+      </c>
+      <c r="E93">
+        <v>1.114221395713027</v>
+      </c>
+      <c r="F93">
         <v>1.141365645480872</v>
       </c>
-      <c r="C93">
-        <v>1.114221395713027</v>
-      </c>
-      <c r="D93">
-        <v>1.037479217900415</v>
-      </c>
-      <c r="E93">
-        <v>1.004362736847858</v>
-      </c>
-      <c r="F93">
-        <v>1.006471030850263</v>
-      </c>
       <c r="G93">
-        <v>1.052489159717015</v>
+        <v>1.073678045698837</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3677,22 +3683,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.043417971937289</v>
+      </c>
+      <c r="C94">
+        <v>1.010270560521841</v>
+      </c>
+      <c r="D94">
+        <v>1.005618259342864</v>
+      </c>
+      <c r="E94">
+        <v>1.106195556425565</v>
+      </c>
+      <c r="F94">
         <v>1.138393537570492</v>
       </c>
-      <c r="C94">
-        <v>1.106195556425565</v>
-      </c>
-      <c r="D94">
-        <v>1.043417971937289</v>
-      </c>
-      <c r="E94">
-        <v>1.010270560521841</v>
-      </c>
-      <c r="F94">
-        <v>1.005618259342864</v>
-      </c>
       <c r="G94">
-        <v>1.052292779418232</v>
+        <v>1.073246197518106</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3706,22 +3712,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.069950512542225</v>
+      </c>
+      <c r="C95">
+        <v>1.027854939217063</v>
+      </c>
+      <c r="D95">
+        <v>1.019262603461249</v>
+      </c>
+      <c r="E95">
+        <v>1.115493784868357</v>
+      </c>
+      <c r="F95">
         <v>1.156149977137631</v>
       </c>
-      <c r="C95">
-        <v>1.115493784868357</v>
-      </c>
-      <c r="D95">
-        <v>1.069950512542225</v>
-      </c>
-      <c r="E95">
-        <v>1.027854939217063</v>
-      </c>
-      <c r="F95">
-        <v>1.019262603461249</v>
-      </c>
       <c r="G95">
-        <v>1.068673998223513</v>
+        <v>1.090391223328882</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3735,22 +3741,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.083262947294888</v>
+      </c>
+      <c r="C96">
+        <v>1.019992001818778</v>
+      </c>
+      <c r="D96">
+        <v>1.02242287434161</v>
+      </c>
+      <c r="E96">
+        <v>1.125477145933248</v>
+      </c>
+      <c r="F96">
         <v>1.158131382411218</v>
       </c>
-      <c r="C96">
-        <v>1.125477145933248</v>
-      </c>
-      <c r="D96">
-        <v>1.083262947294888</v>
-      </c>
-      <c r="E96">
-        <v>1.019992001818778</v>
-      </c>
-      <c r="F96">
-        <v>1.02242287434161</v>
-      </c>
       <c r="G96">
-        <v>1.072650064955046</v>
+        <v>1.094140200890377</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3764,22 +3770,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.097915064907148</v>
+      </c>
+      <c r="C97">
+        <v>1.027098174663985</v>
+      </c>
+      <c r="D97">
+        <v>1.031452219714071</v>
+      </c>
+      <c r="E97">
+        <v>1.125672898110991</v>
+      </c>
+      <c r="F97">
         <v>1.176116445663771</v>
       </c>
-      <c r="C97">
-        <v>1.125672898110991</v>
-      </c>
-      <c r="D97">
-        <v>1.097915064907148</v>
-      </c>
-      <c r="E97">
-        <v>1.027098174663985</v>
-      </c>
-      <c r="F97">
-        <v>1.031452219714071</v>
-      </c>
       <c r="G97">
-        <v>1.08231060547659</v>
+        <v>1.105296322237272</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3793,22 +3799,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.09467263401467</v>
+      </c>
+      <c r="C98">
+        <v>1.045181443420068</v>
+      </c>
+      <c r="D98">
+        <v>1.026536242789065</v>
+      </c>
+      <c r="E98">
+        <v>1.142996965841245</v>
+      </c>
+      <c r="F98">
         <v>1.166819082456942</v>
       </c>
-      <c r="C98">
-        <v>1.142996965841245</v>
-      </c>
-      <c r="D98">
-        <v>1.09467263401467</v>
-      </c>
-      <c r="E98">
-        <v>1.045181443420068</v>
-      </c>
-      <c r="F98">
-        <v>1.026536242789065</v>
-      </c>
       <c r="G98">
-        <v>1.084501611107815</v>
+        <v>1.106798469798698</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3822,22 +3828,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.105601775528016</v>
+      </c>
+      <c r="C99">
+        <v>1.077606578595302</v>
+      </c>
+      <c r="D99">
+        <v>1.023727113117632</v>
+      </c>
+      <c r="E99">
+        <v>1.174415190368993</v>
+      </c>
+      <c r="F99">
         <v>1.172001219326322</v>
       </c>
-      <c r="C99">
-        <v>1.174415190368993</v>
-      </c>
-      <c r="D99">
-        <v>1.105601775528016</v>
-      </c>
-      <c r="E99">
-        <v>1.077606578595302</v>
-      </c>
-      <c r="F99">
-        <v>1.023727113117632</v>
-      </c>
       <c r="G99">
-        <v>1.09695011540737</v>
+        <v>1.120599302653944</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3851,22 +3857,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.138931189914788</v>
+      </c>
+      <c r="C100">
+        <v>1.070294895720047</v>
+      </c>
+      <c r="D100">
+        <v>1.028643090042639</v>
+      </c>
+      <c r="E100">
+        <v>1.176079083879808</v>
+      </c>
+      <c r="F100">
         <v>1.212620027434842</v>
       </c>
-      <c r="C100">
-        <v>1.176079083879808</v>
-      </c>
-      <c r="D100">
-        <v>1.138931189914788</v>
-      </c>
-      <c r="E100">
-        <v>1.070294895720047</v>
-      </c>
-      <c r="F100">
-        <v>1.028643090042639</v>
-      </c>
       <c r="G100">
-        <v>1.110053372767309</v>
+        <v>1.139512202308623</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3880,22 +3886,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.139265433952078</v>
+      </c>
+      <c r="C101">
+        <v>1.061065243376252</v>
+      </c>
+      <c r="D101">
+        <v>1.020466516177577</v>
+      </c>
+      <c r="E101">
+        <v>1.15914652050504</v>
+      </c>
+      <c r="F101">
         <v>1.219554945892394</v>
       </c>
-      <c r="C101">
-        <v>1.15914652050504</v>
-      </c>
-      <c r="D101">
-        <v>1.139265433952078</v>
-      </c>
-      <c r="E101">
-        <v>1.061065243376252</v>
-      </c>
-      <c r="F101">
-        <v>1.020466516177577</v>
-      </c>
       <c r="G101">
-        <v>1.104187761385339</v>
+        <v>1.136145498342938</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3909,22 +3915,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.123094689845917</v>
+      </c>
+      <c r="C102">
+        <v>1.038995236460245</v>
+      </c>
+      <c r="D102">
+        <v>1.0159016804615</v>
+      </c>
+      <c r="E102">
+        <v>1.159440148771655</v>
+      </c>
+      <c r="F102">
         <v>1.239216582837982</v>
       </c>
-      <c r="C102">
-        <v>1.159440148771655</v>
-      </c>
-      <c r="D102">
-        <v>1.123094689845917</v>
-      </c>
-      <c r="E102">
-        <v>1.038995236460245</v>
-      </c>
-      <c r="F102">
-        <v>1.0159016804615</v>
-      </c>
       <c r="G102">
-        <v>1.09976403676645</v>
+        <v>1.135428161632052</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3938,22 +3944,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.133713855178777</v>
+      </c>
+      <c r="C103">
+        <v>1.049185810204051</v>
+      </c>
+      <c r="D103">
+        <v>1.016955104088287</v>
+      </c>
+      <c r="E103">
+        <v>1.15581873348341</v>
+      </c>
+      <c r="F103">
         <v>1.220317024843774</v>
       </c>
-      <c r="C103">
-        <v>1.15581873348341</v>
-      </c>
-      <c r="D103">
-        <v>1.133713855178777</v>
-      </c>
-      <c r="E103">
-        <v>1.049185810204051</v>
-      </c>
-      <c r="F103">
-        <v>1.016955104088287</v>
-      </c>
       <c r="G103">
-        <v>1.099716708052923</v>
+        <v>1.132305244512856</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3967,22 +3973,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.137965287572252</v>
+      </c>
+      <c r="C104">
+        <v>1.027612260102204</v>
+      </c>
+      <c r="D104">
+        <v>1.016102332580888</v>
+      </c>
+      <c r="E104">
+        <v>1.150533424684349</v>
+      </c>
+      <c r="F104">
         <v>1.237768632830361</v>
       </c>
-      <c r="C104">
-        <v>1.150533424684349</v>
-      </c>
-      <c r="D104">
-        <v>1.137965287572252</v>
-      </c>
-      <c r="E104">
-        <v>1.027612260102204</v>
-      </c>
-      <c r="F104">
-        <v>1.016102332580888</v>
-      </c>
       <c r="G104">
-        <v>1.098645414895479</v>
+        <v>1.134106731887441</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3996,22 +4002,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.118663666058374</v>
+      </c>
+      <c r="C105">
+        <v>1.02929647649863</v>
+      </c>
+      <c r="D105">
+        <v>1.018008527715074</v>
+      </c>
+      <c r="E105">
+        <v>1.124009004600176</v>
+      </c>
+      <c r="F105">
         <v>1.229995427526292</v>
       </c>
-      <c r="C105">
-        <v>1.124009004600176</v>
-      </c>
-      <c r="D105">
-        <v>1.118663666058374</v>
-      </c>
-      <c r="E105">
-        <v>1.02929647649863</v>
-      </c>
-      <c r="F105">
-        <v>1.018008527715074</v>
-      </c>
       <c r="G105">
-        <v>1.09053699112938</v>
+        <v>1.124484608150383</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4025,22 +4031,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.134439161038213</v>
+      </c>
+      <c r="C106">
+        <v>1.03198327743756</v>
+      </c>
+      <c r="D106">
+        <v>1.014095811387008</v>
+      </c>
+      <c r="E106">
+        <v>1.12753254379955</v>
+      </c>
+      <c r="F106">
         <v>1.28174058832495</v>
       </c>
-      <c r="C106">
-        <v>1.12753254379955</v>
-      </c>
-      <c r="D106">
-        <v>1.134439161038213</v>
-      </c>
-      <c r="E106">
-        <v>1.03198327743756</v>
-      </c>
-      <c r="F106">
-        <v>1.014095811387008</v>
-      </c>
       <c r="G106">
-        <v>1.10168775256738</v>
+        <v>1.144634887293897</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4054,22 +4060,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.146010625758602</v>
+      </c>
+      <c r="C107">
+        <v>1.06555237375444</v>
+      </c>
+      <c r="D107">
+        <v>1.020617005267118</v>
+      </c>
+      <c r="E107">
+        <v>1.132719976509739</v>
+      </c>
+      <c r="F107">
         <v>1.271452522481329</v>
       </c>
-      <c r="C107">
-        <v>1.132719976509739</v>
-      </c>
-      <c r="D107">
-        <v>1.146010625758602</v>
-      </c>
-      <c r="E107">
-        <v>1.06555237375444</v>
-      </c>
-      <c r="F107">
-        <v>1.020617005267118</v>
-      </c>
       <c r="G107">
-        <v>1.110420831486282</v>
+        <v>1.150845644329237</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4083,22 +4089,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.136699426191269</v>
+      </c>
+      <c r="C108">
+        <v>1.081025017090765</v>
+      </c>
+      <c r="D108">
+        <v>1.018560321043391</v>
+      </c>
+      <c r="E108">
+        <v>1.133600861309582</v>
+      </c>
+      <c r="F108">
         <v>1.278997104099985</v>
       </c>
-      <c r="C108">
-        <v>1.133600861309582</v>
-      </c>
-      <c r="D108">
-        <v>1.136699426191269</v>
-      </c>
-      <c r="E108">
-        <v>1.081025017090765</v>
-      </c>
-      <c r="F108">
-        <v>1.018560321043391</v>
-      </c>
       <c r="G108">
-        <v>1.112191093205481</v>
+        <v>1.154188794799181</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4112,22 +4118,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.123101306249202</v>
+      </c>
+      <c r="C109">
+        <v>1.066108730646828</v>
+      </c>
+      <c r="D109">
+        <v>1.012340105342363</v>
+      </c>
+      <c r="E109">
+        <v>1.096701575805031</v>
+      </c>
+      <c r="F109">
         <v>1.273662551440329</v>
       </c>
-      <c r="C109">
-        <v>1.096701575805031</v>
-      </c>
-      <c r="D109">
-        <v>1.123101306249202</v>
-      </c>
-      <c r="E109">
-        <v>1.066108730646828</v>
-      </c>
-      <c r="F109">
-        <v>1.012340105342363</v>
-      </c>
       <c r="G109">
-        <v>1.098253792482536</v>
+        <v>1.140466225636954</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4141,22 +4147,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.090305136952376</v>
+      </c>
+      <c r="C110">
+        <v>1.021693263356634</v>
+      </c>
+      <c r="D110">
+        <v>0.9926761976423376</v>
+      </c>
+      <c r="E110">
+        <v>1.050308309679945</v>
+      </c>
+      <c r="F110">
         <v>1.265584514555708</v>
       </c>
-      <c r="C110">
-        <v>1.050308309679945</v>
-      </c>
-      <c r="D110">
-        <v>1.090305136952376</v>
-      </c>
-      <c r="E110">
-        <v>1.021693263356634</v>
-      </c>
-      <c r="F110">
-        <v>0.9926761976423376</v>
-      </c>
       <c r="G110">
-        <v>1.069764661393019</v>
+        <v>1.113775061564092</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4170,22 +4176,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.092001712306663</v>
+      </c>
+      <c r="C111">
+        <v>1.039040226695167</v>
+      </c>
+      <c r="D111">
+        <v>0.9942312515675946</v>
+      </c>
+      <c r="E111">
+        <v>1.054810609768034</v>
+      </c>
+      <c r="F111">
         <v>1.273129096174364</v>
       </c>
-      <c r="C111">
-        <v>1.054810609768034</v>
-      </c>
-      <c r="D111">
-        <v>1.092001712306663</v>
-      </c>
-      <c r="E111">
-        <v>1.039040226695167</v>
-      </c>
-      <c r="F111">
-        <v>0.9942312515675946</v>
-      </c>
       <c r="G111">
-        <v>1.075467982962816</v>
+        <v>1.12050163848823</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4199,22 +4205,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.088202832644187</v>
+      </c>
+      <c r="C112">
+        <v>1.06684170897195</v>
+      </c>
+      <c r="D112">
+        <v>1.007875595685979</v>
+      </c>
+      <c r="E112">
+        <v>1.073504942742488</v>
+      </c>
+      <c r="F112">
         <v>1.245313214449017</v>
       </c>
-      <c r="C112">
-        <v>1.073504942742488</v>
-      </c>
-      <c r="D112">
-        <v>1.088202832644187</v>
-      </c>
-      <c r="E112">
-        <v>1.06684170897195</v>
-      </c>
-      <c r="F112">
-        <v>1.007875595685979</v>
-      </c>
       <c r="G112">
-        <v>1.082380382665592</v>
+        <v>1.120738721683616</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4228,22 +4234,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.09055551923474</v>
+      </c>
+      <c r="C113">
+        <v>1.081004197934042</v>
+      </c>
+      <c r="D113">
+        <v>1.003812390268372</v>
+      </c>
+      <c r="E113">
+        <v>1.068121757854556</v>
+      </c>
+      <c r="F113">
         <v>1.224051211705533</v>
       </c>
-      <c r="C113">
-        <v>1.068121757854556</v>
-      </c>
-      <c r="D113">
-        <v>1.09055551923474</v>
-      </c>
-      <c r="E113">
-        <v>1.081004197934042</v>
-      </c>
-      <c r="F113">
-        <v>1.003812390268372</v>
-      </c>
       <c r="G113">
-        <v>1.079234846946627</v>
+        <v>1.114971186221802</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4257,22 +4263,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.101601974667874</v>
+      </c>
+      <c r="C114">
+        <v>1.085273316856529</v>
+      </c>
+      <c r="D114">
+        <v>1.009129671432154</v>
+      </c>
+      <c r="E114">
+        <v>1.073896447097974</v>
+      </c>
+      <c r="F114">
         <v>1.238225880201189</v>
       </c>
-      <c r="C114">
-        <v>1.073896447097974</v>
-      </c>
-      <c r="D114">
-        <v>1.101601974667874</v>
-      </c>
-      <c r="E114">
-        <v>1.085273316856529</v>
-      </c>
-      <c r="F114">
-        <v>1.009129671432154</v>
-      </c>
       <c r="G114">
-        <v>1.086908010314995</v>
+        <v>1.124082649583012</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4286,22 +4292,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.1160717247728</v>
+      </c>
+      <c r="C115">
+        <v>1.100747512008352</v>
+      </c>
+      <c r="D115">
+        <v>1.025532982192124</v>
+      </c>
+      <c r="E115">
+        <v>1.092003523539199</v>
+      </c>
+      <c r="F115">
         <v>1.280521262002743</v>
       </c>
-      <c r="C115">
-        <v>1.092003523539199</v>
-      </c>
-      <c r="D115">
-        <v>1.1160717247728</v>
-      </c>
-      <c r="E115">
-        <v>1.100747512008352</v>
-      </c>
-      <c r="F115">
-        <v>1.025532982192124</v>
-      </c>
       <c r="G115">
-        <v>1.107530271734421</v>
+        <v>1.148824810159369</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4315,22 +4321,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.118823361974031</v>
+      </c>
+      <c r="C116">
+        <v>1.113809018910833</v>
+      </c>
+      <c r="D116">
+        <v>1.019663907700025</v>
+      </c>
+      <c r="E116">
+        <v>1.084956445140452</v>
+      </c>
+      <c r="F116">
         <v>1.286694101508916</v>
       </c>
-      <c r="C116">
-        <v>1.084956445140452</v>
-      </c>
-      <c r="D116">
-        <v>1.118823361974031</v>
-      </c>
-      <c r="E116">
-        <v>1.113809018910833</v>
-      </c>
-      <c r="F116">
-        <v>1.019663907700025</v>
-      </c>
       <c r="G116">
-        <v>1.108054025317404</v>
+        <v>1.151418916467048</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4344,22 +4350,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.151759192902441</v>
+      </c>
+      <c r="C117">
+        <v>1.131908687253101</v>
+      </c>
+      <c r="D117">
+        <v>1.022222222222222</v>
+      </c>
+      <c r="E117">
+        <v>1.113829891357541</v>
+      </c>
+      <c r="F117">
         <v>1.329522938576436</v>
       </c>
-      <c r="C117">
-        <v>1.113829891357541</v>
-      </c>
-      <c r="D117">
-        <v>1.151759192902441</v>
-      </c>
-      <c r="E117">
-        <v>1.131908687253101</v>
-      </c>
-      <c r="F117">
-        <v>1.022222222222222</v>
-      </c>
       <c r="G117">
-        <v>1.129508514647774</v>
+        <v>1.179414708097327</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4373,28 +4379,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.329522938576436</v>
+        <v>1.158595950178206</v>
       </c>
       <c r="C118">
-        <v>1.113829891357541</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="D118">
-        <v>1.158596065849592</v>
+        <v>1.030900426385754</v>
       </c>
       <c r="E118">
-        <v>1.146698047603815</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="F118">
-        <v>1.022222222222222</v>
+        <v>1.257506477671087</v>
       </c>
       <c r="G118">
-        <v>1.133076843141922</v>
+        <v>1.159223405657578</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.157231721850478</v>
+      </c>
+      <c r="C119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="D119">
+        <v>1.017557060446451</v>
+      </c>
+      <c r="E119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="F119">
+        <v>1.235558603871361</v>
+      </c>
+      <c r="G119">
+        <v>1.149242358203682</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.164615812991016</v>
+      </c>
+      <c r="C120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="D120">
+        <v>1.019162277401555</v>
+      </c>
+      <c r="E120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="F120">
+        <v>1.245084590763603</v>
+      </c>
+      <c r="G120">
+        <v>1.161072759393917</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.142112314972629</v>
+      </c>
+      <c r="C121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="D121">
+        <v>1.014246300476549</v>
+      </c>
+      <c r="E121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="F121">
+        <v>1.217802164304222</v>
+      </c>
+      <c r="G121">
+        <v>1.140187951226063</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.121508187382649</v>
+      </c>
+      <c r="C122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="D122">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="E122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="F122">
+        <v>1.21566834324036</v>
+      </c>
+      <c r="G122">
+        <v>1.131433443356504</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.141999211491295</v>
+      </c>
+      <c r="C123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="D123">
+        <v>0.9941810885377477</v>
+      </c>
+      <c r="E123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="F123">
+        <v>1.243026977594879</v>
+      </c>
+      <c r="G123">
+        <v>1.153116901603365</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.172960740067379</v>
+      </c>
+      <c r="C124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="D124">
+        <v>0.9964885879107097</v>
+      </c>
+      <c r="E124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="F124">
+        <v>1.243560432860844</v>
+      </c>
+      <c r="G124">
+        <v>1.159161293033069</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.189142449820943</v>
+      </c>
+      <c r="C125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="D125">
+        <v>1.008176573865061</v>
+      </c>
+      <c r="E125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="F125">
+        <v>1.224432251181222</v>
+      </c>
+      <c r="G125">
+        <v>1.172604149049498</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.186521636957397</v>
+      </c>
+      <c r="C126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="D126">
+        <v>0.9972410333584149</v>
+      </c>
+      <c r="E126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="F126">
+        <v>1.172839506172839</v>
+      </c>
+      <c r="G126">
+        <v>1.1567608647795</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.211938249432019</v>
+      </c>
+      <c r="C127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="D127">
+        <v>1.000953097567093</v>
+      </c>
+      <c r="E127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="F127">
+        <v>1.203627495808566</v>
+      </c>
+      <c r="G127">
+        <v>1.183644894961627</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4506,18 +4773,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4549,19 +4816,16 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -4579,30 +4843,27 @@
         <v>69</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="J2">
-        <v>10.5</v>
+        <v>4.356100082397461</v>
       </c>
       <c r="K2">
-        <v>1.19</v>
+        <v>25.67799949645996</v>
       </c>
       <c r="L2">
-        <v>-0.11</v>
-      </c>
-      <c r="M2">
-        <v>-7.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.6868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -4620,30 +4881,27 @@
         <v>70</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="J3">
-        <v>39.53</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K3">
-        <v>3.11</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L3">
-        <v>16.99</v>
-      </c>
-      <c r="M3">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -4661,30 +4919,27 @@
         <v>71</v>
       </c>
       <c r="I4">
-        <v>0.165</v>
+        <v>0.33</v>
       </c>
       <c r="J4">
-        <v>24.53</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K4">
-        <v>4.14</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L4">
-        <v>11.05</v>
-      </c>
-      <c r="M4">
-        <v>13.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -4702,27 +4957,24 @@
         <v>72</v>
       </c>
       <c r="I5">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>36.67</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K5">
-        <v>4.21</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L5">
-        <v>14.81</v>
-      </c>
-      <c r="M5">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -4743,19 +4995,16 @@
         <v>73</v>
       </c>
       <c r="I6">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J6">
-        <v>34.32</v>
+        <v>1.161100029945374</v>
       </c>
       <c r="K6">
-        <v>3.01</v>
+        <v>10.14039993286133</v>
       </c>
       <c r="L6">
-        <v>-5.03</v>
-      </c>
-      <c r="M6">
-        <v>-23.34</v>
+        <v>-7.3254</v>
       </c>
     </row>
   </sheetData>
@@ -4805,7 +5054,7 @@
         <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4825,7 +5074,7 @@
         <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4845,7 +5094,7 @@
         <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4865,7 +5114,7 @@
         <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4885,7 +5134,7 @@
         <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4905,7 +5154,7 @@
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4925,7 +5174,7 @@
         <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4945,7 +5194,7 @@
         <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4965,7 +5214,7 @@
         <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4985,7 +5234,7 @@
         <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5005,7 +5254,7 @@
         <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5025,7 +5274,7 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5045,7 +5294,7 @@
         <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5065,7 +5314,7 @@
         <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5085,7 +5334,7 @@
         <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5105,7 +5354,7 @@
         <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5125,7 +5374,7 @@
         <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5145,7 +5394,7 @@
         <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5165,7 +5414,7 @@
         <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5182,10 +5431,10 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5203,21 +5452,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5225,21 +5474,21 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5247,21 +5496,21 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5269,10 +5518,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5280,10 +5529,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5291,21 +5540,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
